--- a/experiments/241009/report_Hy.xlsx
+++ b/experiments/241009/report_Hy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fudan\Projects\2024\MultichannelR\Progress\build_package\MultichannelR\experiments\241009\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91141295-FB3C-4669-B977-F82C7A411AFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C56341A-09C6-4A7F-A56D-40979D327C91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="228">
   <si>
     <t>Mass</t>
   </si>
@@ -88,64 +88,112 @@
     <t>HMDB0000820|HMDB0000863</t>
   </si>
   <si>
-    <t>C2H6N2O|C4H10O</t>
-  </si>
-  <si>
-    <t>Methylurea|2-Butanol|1-Butanol|Isobutanol|2-Methylpropan-2-ol|Acetylhydrazine</t>
-  </si>
-  <si>
-    <t>HMDB0254670|HMDB0011469|HMDB0004327|HMDB0006006|HMDB0031456|HMDB0060428</t>
+    <t>C4H10O|C2H6N2O</t>
+  </si>
+  <si>
+    <t>Isobutanol|2-Butanol|1-Butanol|Methylurea|2-Methylpropan-2-ol|Acetylhydrazine</t>
+  </si>
+  <si>
+    <t>HMDB0006006|HMDB0011469|HMDB0004327|HMDB0254670|HMDB0031456|HMDB0060428</t>
   </si>
   <si>
     <t>C3H8O2</t>
   </si>
   <si>
-    <t>Propylene glycol|(S)-Propane-1,2-diol|2-Methoxyethanol|Propanediol</t>
-  </si>
-  <si>
-    <t>HMDB0001881|HMDB0006213|HMDB0245203|HMDB0256813</t>
-  </si>
-  <si>
-    <t>Propanediol|2-Methoxyethanol|Propylene glycol|(S)-Propane-1,2-diol</t>
-  </si>
-  <si>
-    <t>HMDB0256813|HMDB0245203|HMDB0001881|HMDB0006213</t>
+    <t>Propanediol|Propylene glycol|(S)-Propane-1,2-diol|2-Methoxyethanol</t>
+  </si>
+  <si>
+    <t>HMDB0256813|HMDB0001881|HMDB0006213|HMDB0245203</t>
+  </si>
+  <si>
+    <t>2-Methoxyethanol|Propylene glycol|(S)-Propane-1,2-diol|Propanediol</t>
   </si>
   <si>
     <t>C5H12O|C3H8N2O</t>
   </si>
   <si>
-    <t>2-Pentanol|1-Pentanol|(S)-2-Methyl-1-butanol|3-Methyl-2-butanol|3-pentanol|Neopentyl alcohol|Isopentanol|2-Methyl-2-butanol|Ethylurea</t>
-  </si>
-  <si>
-    <t>HMDB0031599|HMDB0013036|HMDB0031527|HMDB0033777|HMDB0303831|HMDB0255527|HMDB0006007|HMDB0033772|HMDB0252088</t>
+    <t>3-pentanol|(S)-2-Methyl-1-butanol|2-Pentanol|Neopentyl alcohol|Isopentanol|1-Pentanol|3-Methyl-2-butanol|2-Methyl-2-butanol|Ethylurea</t>
+  </si>
+  <si>
+    <t>HMDB0303831|HMDB0031527|HMDB0031599|HMDB0255527|HMDB0006007|HMDB0013036|HMDB0033777|HMDB0033772|HMDB0252088</t>
+  </si>
+  <si>
+    <t>3-Methyl-2-butanol|1-Pentanol|Isopentanol|Neopentyl alcohol|2-Pentanol|(S)-2-Methyl-1-butanol|3-pentanol|2-Methyl-2-butanol|Ethylurea</t>
+  </si>
+  <si>
+    <t>HMDB0033777|HMDB0013036|HMDB0006007|HMDB0255527|HMDB0031599|HMDB0031527|HMDB0303831|HMDB0033772|HMDB0252088</t>
+  </si>
+  <si>
+    <t>Isopentanol|1-Pentanol|Neopentyl alcohol|2-Pentanol|3-Methyl-2-butanol|(S)-2-Methyl-1-butanol|3-pentanol|2-Methyl-2-butanol|Ethylurea</t>
+  </si>
+  <si>
+    <t>HMDB0006007|HMDB0013036|HMDB0255527|HMDB0031599|HMDB0033777|HMDB0031527|HMDB0303831|HMDB0033772|HMDB0252088</t>
+  </si>
+  <si>
+    <t>Neopentyl alcohol|Isopentanol|2-Pentanol|(S)-2-Methyl-1-butanol|3-pentanol|1-Pentanol|3-Methyl-2-butanol|2-Methyl-2-butanol|Ethylurea</t>
+  </si>
+  <si>
+    <t>HMDB0255527|HMDB0006007|HMDB0031599|HMDB0031527|HMDB0303831|HMDB0013036|HMDB0033777|HMDB0033772|HMDB0252088</t>
   </si>
   <si>
     <t>C5H12O</t>
   </si>
   <si>
-    <t>2-Methyl-2-butanol|Isopentanol|2-Pentanol|1-Pentanol|(S)-2-Methyl-1-butanol|3-Methyl-2-butanol|3-pentanol|Neopentyl alcohol</t>
-  </si>
-  <si>
-    <t>HMDB0033772|HMDB0006007|HMDB0031599|HMDB0013036|HMDB0031527|HMDB0033777|HMDB0303831|HMDB0255527</t>
+    <t>2-Methyl-2-butanol|3-Methyl-2-butanol|1-Pentanol|Isopentanol|Neopentyl alcohol|2-Pentanol|(S)-2-Methyl-1-butanol|3-pentanol</t>
+  </si>
+  <si>
+    <t>HMDB0033772|HMDB0033777|HMDB0013036|HMDB0006007|HMDB0255527|HMDB0031599|HMDB0031527|HMDB0303831</t>
   </si>
   <si>
     <t>C5H10O2|C3H6N2O2</t>
   </si>
   <si>
-    <t>3-Acetyl-1-propanol|MALONAMIDE|Cycloserine|Tetrahydro-2-furanmethanol|1-Hydroxy-2-pentanone|4-Hydroxypentan-2-one|Tetrahydro-2-methyl-3-furanol|3-Hydroxy-2-pentanone</t>
-  </si>
-  <si>
-    <t>HMDB0245797|HMDB0254314|HMDB0014405|HMDB0031175|HMDB0059678|HMDB0246464|HMDB0039799|HMDB0031516</t>
-  </si>
-  <si>
-    <t>C4H12N2O|C5H14NO|C5H12O2</t>
-  </si>
-  <si>
-    <t>N-(2-Hydroxyethyl)ethylenediamine|Choline|1,3-Pentanediol|3-ethoxy-1-propanol|Pentane-2,3-diol|2-Isopropoxyethanol</t>
-  </si>
-  <si>
-    <t>HMDB0244916|HMDB0000097|HMDB0244179|HMDB0303834|HMDB0256276|HMDB0245182</t>
+    <t>3-Acetyl-1-propanol|Tetrahydro-2-furanmethanol|Cycloserine|1-Hydroxy-2-pentanone|4-Hydroxypentan-2-one|3-Hydroxy-2-pentanone|Tetrahydro-2-methyl-3-furanol|MALONAMIDE</t>
+  </si>
+  <si>
+    <t>HMDB0245797|HMDB0031175|HMDB0014405|HMDB0059678|HMDB0246464|HMDB0031516|HMDB0039799|HMDB0254314</t>
+  </si>
+  <si>
+    <t>C6H14O</t>
+  </si>
+  <si>
+    <t>3-methyl-2-pentanol|3-Hexanol|2-Hexanol|(±)-3-Methyl-1-pentanol|4-Methyl-2-pentanol|Isohexanol|1-Hexanol|2-Methylpentan-3-ol|2-Methylpentan-2-ol|3,3-Dimethyl-2-butanol|3-Methylpentan-3-ol</t>
+  </si>
+  <si>
+    <t>HMDB0062726|HMDB0031493|HMDB0061886|HMDB0033676|HMDB0246515|HMDB0059889|HMDB0012971|HMDB0302390|HMDB0302442|HMDB0245993|HMDB0302446</t>
+  </si>
+  <si>
+    <t>1-Hexanol|4-Methyl-2-pentanol|3-methyl-2-pentanol|3-Hexanol|2-Hexanol|(±)-3-Methyl-1-pentanol|Isohexanol|2-Methylpentan-3-ol|2-Methylpentan-2-ol|3,3-Dimethyl-2-butanol|3-Methylpentan-3-ol</t>
+  </si>
+  <si>
+    <t>HMDB0012971|HMDB0246515|HMDB0062726|HMDB0031493|HMDB0061886|HMDB0033676|HMDB0059889|HMDB0302390|HMDB0302442|HMDB0245993|HMDB0302446</t>
+  </si>
+  <si>
+    <t>3-Methylpentan-3-ol|3,3-Dimethyl-2-butanol|2-Methylpentan-2-ol|2-Methylpentan-3-ol|1-Hexanol|4-Methyl-2-pentanol|3-methyl-2-pentanol|3-Hexanol|2-Hexanol|(±)-3-Methyl-1-pentanol|Isohexanol</t>
+  </si>
+  <si>
+    <t>HMDB0302446|HMDB0245993|HMDB0302442|HMDB0302390|HMDB0012971|HMDB0246515|HMDB0062726|HMDB0031493|HMDB0061886|HMDB0033676|HMDB0059889</t>
+  </si>
+  <si>
+    <t>4-Methyl-2-pentanol|3-methyl-2-pentanol|3-Hexanol|2-Hexanol|1-Hexanol|(±)-3-Methyl-1-pentanol|Isohexanol|2-Methylpentan-3-ol|2-Methylpentan-2-ol|3,3-Dimethyl-2-butanol|3-Methylpentan-3-ol</t>
+  </si>
+  <si>
+    <t>HMDB0246515|HMDB0062726|HMDB0031493|HMDB0061886|HMDB0012971|HMDB0033676|HMDB0059889|HMDB0302390|HMDB0302442|HMDB0245993|HMDB0302446</t>
+  </si>
+  <si>
+    <t>Isohexanol|(±)-3-Methyl-1-pentanol|3-Hexanol|2-Hexanol|3-methyl-2-pentanol|4-Methyl-2-pentanol|1-Hexanol|2-Methylpentan-3-ol|2-Methylpentan-2-ol|3,3-Dimethyl-2-butanol|3-Methylpentan-3-ol</t>
+  </si>
+  <si>
+    <t>HMDB0059889|HMDB0033676|HMDB0031493|HMDB0061886|HMDB0062726|HMDB0246515|HMDB0012971|HMDB0302390|HMDB0302442|HMDB0245993|HMDB0302446</t>
+  </si>
+  <si>
+    <t>C5H14NO|C4H12N2O|C5H12O2</t>
+  </si>
+  <si>
+    <t>Choline|N-(2-Hydroxyethyl)ethylenediamine|1,3-Pentanediol|3-ethoxy-1-propanol|Pentane-2,3-diol|2-Isopropoxyethanol</t>
+  </si>
+  <si>
+    <t>HMDB0000097|HMDB0244916|HMDB0244179|HMDB0303834|HMDB0256276|HMDB0245182</t>
   </si>
   <si>
     <t>C5H12O2|C5H14NO|C4H12N2O</t>
@@ -160,370 +208,503 @@
     <t>C7H14O</t>
   </si>
   <si>
-    <t>3-Methylcyclohexanol|(+/-)-1-Hepten-3-ol|1-Methylcyclohexanol</t>
-  </si>
-  <si>
-    <t>HMDB0031538|HMDB0303231|HMDB0059693</t>
+    <t>(Z)-4-Hepten-1-ol|(2R,4Z)-4-Hepten-2-ol|(+/-)-1-Hepten-3-ol|3-Methylcyclohexanol|1-Methylcyclohexanol</t>
+  </si>
+  <si>
+    <t>HMDB0031405|HMDB0041320|HMDB0303231|HMDB0031538|HMDB0059693</t>
+  </si>
+  <si>
+    <t>C4H8N2O2|C6H12O2</t>
+  </si>
+  <si>
+    <t>N-Nitroso-3-hydroxypyrrolidine|1,2-Cyclohexanediol|N,N'-Diacetylhydrazine|Diacetone alcohol</t>
+  </si>
+  <si>
+    <t>HMDB0061163|HMDB0244061|HMDB0060496|HMDB0031511</t>
+  </si>
+  <si>
+    <t>C7H16O</t>
+  </si>
+  <si>
+    <t>1-Heptanol|xi-3-Heptanol|(±)-2-Heptanol|4-methyl-1-hexanol</t>
+  </si>
+  <si>
+    <t>HMDB0031479|HMDB0031481|HMDB0033908|HMDB0303837</t>
+  </si>
+  <si>
+    <t>xi-3-Heptanol|(±)-2-Heptanol|4-methyl-1-hexanol|1-Heptanol</t>
+  </si>
+  <si>
+    <t>HMDB0031481|HMDB0033908|HMDB0303837|HMDB0031479</t>
+  </si>
+  <si>
+    <t>(±)-2-Heptanol|4-methyl-1-hexanol|xi-3-Heptanol|1-Heptanol</t>
+  </si>
+  <si>
+    <t>HMDB0033908|HMDB0303837|HMDB0031481|HMDB0031479</t>
+  </si>
+  <si>
+    <t>C6H14O2|C4H10N2O2</t>
+  </si>
+  <si>
+    <t>(±)-1,5-Hexanediol|N-Ethyl-N-(2-hydroxyethyl)nitrosamine|2-Methyl-1,3-pentanediol|Hexanediol|4-Methyl-1,2-dihydroxypentane|1-Isopropoxy-2-propanol|2-Butoxyethanol</t>
+  </si>
+  <si>
+    <t>HMDB0031490|HMDB0244541|HMDB0245212|HMDB0253145|HMDB0059740|HMDB0243911|HMDB0031327</t>
+  </si>
+  <si>
+    <t>2-Butoxyethanol|1-Isopropoxy-2-propanol|4-Methyl-1,2-dihydroxypentane|Hexanediol|2-Methyl-1,3-pentanediol|N-Ethyl-N-(2-hydroxyethyl)nitrosamine|(±)-1,5-Hexanediol</t>
+  </si>
+  <si>
+    <t>HMDB0031327|HMDB0243911|HMDB0059740|HMDB0253145|HMDB0245212|HMDB0244541|HMDB0031490</t>
+  </si>
+  <si>
+    <t>C8H10O|C6H6N2O|C4H10O4</t>
+  </si>
+  <si>
+    <t>2-Phenylethanol|Picolinamide|4-Methylbenzyl alcohol|1-Phenylethanol|Erythritol|D-Threitol</t>
+  </si>
+  <si>
+    <t>HMDB0033944|HMDB0256533|HMDB0041609|HMDB0032619|HMDB0002994|HMDB0004136</t>
+  </si>
+  <si>
+    <t>C6H8O3|C3H3F3O2|C4H4N2O3</t>
+  </si>
+  <si>
+    <t>(±)-Furaneol|3-Hydroxy-4,5-dimethyl-2(5H)-furanone|2-Ethyl-3,4-dihydroxyfuran|Osmundalactone|L-erythro-5-(1-Hydroxyethyl)-2(5H)-furanone|1,1,1-Trifluoro-3-hydroxypropan-2-one|Barbituric acid</t>
+  </si>
+  <si>
+    <t>HMDB0040594|HMDB0031306|HMDB0031847|HMDB0031303|HMDB0033285|HMDB0245298|HMDB0041833</t>
   </si>
   <si>
     <t>C8H16O</t>
   </si>
   <si>
-    <t>7-Octen-4-ol|(±)-(E)-2-Octen-4-ol|3,5-Dimethylcyclohexanol|3,4-Dimethylcyclohexanol</t>
-  </si>
-  <si>
-    <t>HMDB0302641|HMDB0031300|HMDB0061913|HMDB0061912</t>
+    <t>(E)-2-Octen-1-ol|Oct-trans-2-en-1-ol|cis-4-Octenol|(R)-Sulcatol|(Z)-5-Octen-1-ol|(Z)-3-Octen-1-ol|(E)-3-Octen-1-ol|3,5-Dimethylcyclohexanol|(±)-(E)-2-Octen-4-ol|trans-3-Octen-2-ol|7-Octen-4-ol|xi-7-Octen-2-ol|(R)-1-Octen-3-ol|3,4-Dimethylcyclohexanol</t>
+  </si>
+  <si>
+    <t>HMDB0031296|HMDB0302352|HMDB0303212|HMDB0030030|HMDB0031298|HMDB0035231|HMDB0035768|HMDB0061913|HMDB0031300|HMDB0032450|HMDB0302641|HMDB0037181|HMDB0031299|HMDB0061912</t>
   </si>
   <si>
     <t>C8H18O|C6H14N2O</t>
   </si>
   <si>
-    <t>2-Propyl-1-pentanol|2,4,4-Trimethyl-2-pentanol|2-Ethyl-4-methyl-1-pentanol|(S)-3-Ethyl-4-methylpentanol|2,3,4-Trimethyl-3-pentanol|N-(2-Hydroxyethyl)piperazine</t>
-  </si>
-  <si>
-    <t>HMDB0094707|HMDB0245471|HMDB0013818|HMDB0059859|HMDB0036166|HMDB0254989</t>
-  </si>
-  <si>
-    <t>C6H14O3|C4H10N2O3|C6H14OS|C9H10O</t>
-  </si>
-  <si>
-    <t>Trimethylolpropane|N,N-Bis(1-hydroxyethyl)nitrous amide|Polypropylene glycol (m w 1,200-3,000)|N-NITROSODIETHANOLAMINE|6-Mercapto-1-hexanol|3-Mercapto-1-hexanol|3-Mercapto-2-methylpentanol|2-Mercapto-2-methyl-1-pentanol|(+/-)-3-(Ethylthio)butanol|mercaptohexanol|(+/-)-4-Mercapto-4-methyl-2-pentanol|Cinnamyl alcohol|trans-Cinnamyl alcohol|Indan-1-ol</t>
-  </si>
-  <si>
-    <t>HMDB0259243|HMDB0257609|HMDB0032478|HMDB0255203|HMDB0247085|HMDB0040152|HMDB0034878|HMDB0032374|HMDB0032277|HMDB0254465|HMDB0032375|HMDB0029697|HMDB0029698|HMDB0059601</t>
+    <t>(±)-2-Octanol|4-Methyl-2-heptanol|(S)-3-Octanol|Octanol|xi-2-Ethyl-1-hexanol|2-Propyl-1-pentanol|2-Ethyl-4-methyl-1-pentanol|(2xi,4xi)-2,4-Dimethyl-1-hexanol|(S)-3-Ethyl-4-methylpentanol|2,4,4-Trimethyl-2-pentanol|2,3,4-Trimethyl-3-pentanol|N-(2-Hydroxyethyl)piperazine</t>
+  </si>
+  <si>
+    <t>HMDB0034261|HMDB0031589|HMDB0030070|HMDB0001183|HMDB0031231|HMDB0094707|HMDB0013818|HMDB0037791|HMDB0059859|HMDB0245471|HMDB0036166|HMDB0254989</t>
+  </si>
+  <si>
+    <t>2,4,4-Trimethyl-2-pentanol|2,3,4-Trimethyl-3-pentanol|Octanol|(S)-3-Octanol|(±)-2-Octanol|4-Methyl-2-heptanol|xi-2-Ethyl-1-hexanol|2-Propyl-1-pentanol|2-Ethyl-4-methyl-1-pentanol|(2xi,4xi)-2,4-Dimethyl-1-hexanol|(S)-3-Ethyl-4-methylpentanol|N-(2-Hydroxyethyl)piperazine</t>
+  </si>
+  <si>
+    <t>HMDB0245471|HMDB0036166|HMDB0001183|HMDB0030070|HMDB0034261|HMDB0031589|HMDB0031231|HMDB0094707|HMDB0013818|HMDB0037791|HMDB0059859|HMDB0254989</t>
+  </si>
+  <si>
+    <t>Octanol|(S)-3-Octanol|(±)-2-Octanol|4-Methyl-2-heptanol|xi-2-Ethyl-1-hexanol|2-Propyl-1-pentanol|2-Ethyl-4-methyl-1-pentanol|(2xi,4xi)-2,4-Dimethyl-1-hexanol|(S)-3-Ethyl-4-methylpentanol|2,4,4-Trimethyl-2-pentanol|2,3,4-Trimethyl-3-pentanol|N-(2-Hydroxyethyl)piperazine</t>
+  </si>
+  <si>
+    <t>HMDB0001183|HMDB0030070|HMDB0034261|HMDB0031589|HMDB0031231|HMDB0094707|HMDB0013818|HMDB0037791|HMDB0059859|HMDB0245471|HMDB0036166|HMDB0254989</t>
+  </si>
+  <si>
+    <t>C7H16O2</t>
+  </si>
+  <si>
+    <t>3,4-Heptanediol</t>
+  </si>
+  <si>
+    <t>HMDB0246037</t>
+  </si>
+  <si>
+    <t>C6H14O3|C6H14OS|C4H10N2O3|C9H10O</t>
+  </si>
+  <si>
+    <t>Polypropylene glycol (m w 1,200-3,000)|6-Mercapto-1-hexanol|N,N-Bis(1-hydroxyethyl)nitrous amide|(+/-)-3-(Ethylthio)butanol|3-Mercapto-1-hexanol|mercaptohexanol|2-Mercapto-2-methyl-1-pentanol|3-Mercapto-2-methylpentanol|Trimethylolpropane|N-NITROSODIETHANOLAMINE|(+/-)-4-Mercapto-4-methyl-2-pentanol|Cinnamyl alcohol|trans-Cinnamyl alcohol|7-Nonene-3,5-diyn-1-ol|Indan-1-ol</t>
+  </si>
+  <si>
+    <t>HMDB0032478|HMDB0247085|HMDB0257609|HMDB0032277|HMDB0040152|HMDB0254465|HMDB0032374|HMDB0034878|HMDB0259243|HMDB0255203|HMDB0032375|HMDB0029697|HMDB0029698|HMDB0034563|HMDB0059601</t>
+  </si>
+  <si>
+    <t>C7H8N2O|C9H12O|C5H12O4</t>
+  </si>
+  <si>
+    <t>1,2-Diacylglycerol-Bile-PC-pool|3-Phenyl-1-propanol|2-Phenyl-1-propanol|(R)-2-Phenyl-1-propanol|Benzohydrazide|3-Aminobenzamide|(±)-1-(4-Methylphenyl)ethanol|1-Phenyl-1-propanol|1-Deoxy-D-ribitol|2-Methylerythritol|2-C-Methyl-D-erythritol|2-Deoxy-D-ribitol|3-Deoxy-D-arabinitol|1,2-Diacylglycerol-LD-PE-pool</t>
+  </si>
+  <si>
+    <t>HMDB0062267|HMDB0033962|HMDB0031628|HMDB0303917|HMDB0249018|HMDB0245814|HMDB0034378|HMDB0031627|HMDB0041486|HMDB0011659|HMDB0245046|HMDB0033919|HMDB0031201|HMDB0062269</t>
+  </si>
+  <si>
+    <t>C8H10O2|C8H12NO|C5H6N4O</t>
+  </si>
+  <si>
+    <t>2-Phenoxyethanol|styrene glycol (1-phenyl 1,2-ethanediol)|4-Methoxybenzyl alcohol|Phenylethanolaminium|8-Hydroxypurine|Tyrosol</t>
+  </si>
+  <si>
+    <t>HMDB0041607|HMDB0303891|HMDB0034241|HMDB0062626|HMDB0012182|HMDB0004284</t>
+  </si>
+  <si>
+    <t>C9H18O</t>
+  </si>
+  <si>
+    <t>Dihydroisophorol|(Z)-3-Nonen-1-ol|(E)-3-Nonen-1-ol|1-Nonen-3-ol|(Z)-6-Nonen-1-ol|(E)-6-Nonenol|2-Nonen-1-ol|(Z)-2-Nonen-1-ol|(±)-2,6-Dimethyl-6-hepten-1-ol</t>
+  </si>
+  <si>
+    <t>HMDB0029557|HMDB0030959|HMDB0041601|HMDB0034152|HMDB0040581|HMDB0059887|HMDB0041498|HMDB0041499|HMDB0037304</t>
+  </si>
+  <si>
+    <t>(Z)-3-Nonen-1-ol|(E)-3-Nonen-1-ol|(Z)-6-Nonen-1-ol|(E)-6-Nonenol|Dihydroisophorol|2-Nonen-1-ol|(Z)-2-Nonen-1-ol|1-Nonen-3-ol|(±)-2,6-Dimethyl-6-hepten-1-ol</t>
+  </si>
+  <si>
+    <t>HMDB0030959|HMDB0041601|HMDB0040581|HMDB0059887|HMDB0029557|HMDB0041498|HMDB0041499|HMDB0034152|HMDB0037304</t>
+  </si>
+  <si>
+    <t>C6H9NOS|C6H9NO3</t>
+  </si>
+  <si>
+    <t>5-(2-Hydroxyethyl)-4-methylthiazole|5-ethyl-5-methyl-2,4-oxazolidinedione|6-Oxopiperidine-2-carboxylic acid|5-(1-Hydroxyethyl)-4-methylthiazole</t>
+  </si>
+  <si>
+    <t>HMDB0032985|HMDB0061082|HMDB0061705|HMDB0246712</t>
+  </si>
+  <si>
+    <t>C9H20O|C7H16N2O</t>
+  </si>
+  <si>
+    <t>2-Octanol, 2-methyl-|Diisobutylcarbinol|1-Nonanol|3-Nonanol|2-Nonanol|4-Methyloctan-1-ol|(±)-3,5,5-Trimethyl-1-hexanol|4-(Aminomethyl)-1-methylpiperidin-4-ol</t>
+  </si>
+  <si>
+    <t>HMDB0245214|HMDB0031153|HMDB0031265|HMDB0031732|HMDB0033916|HMDB0246514|HMDB0031198|HMDB0246299</t>
+  </si>
+  <si>
+    <t>1-Nonanol|3-Nonanol|2-Nonanol|Diisobutylcarbinol|2-Octanol, 2-methyl-|4-Methyloctan-1-ol|(±)-3,5,5-Trimethyl-1-hexanol|4-(Aminomethyl)-1-methylpiperidin-4-ol</t>
+  </si>
+  <si>
+    <t>HMDB0031265|HMDB0031732|HMDB0033916|HMDB0031153|HMDB0245214|HMDB0246514|HMDB0031198|HMDB0246299</t>
   </si>
   <si>
     <t>C9H20O</t>
   </si>
   <si>
-    <t>2-Octanol, 2-methyl-|Diisobutylcarbinol</t>
-  </si>
-  <si>
-    <t>HMDB0245214|HMDB0031153</t>
+    <t>2-Nonanol|3-Nonanol|1-Nonanol|4-Methyloctan-1-ol|Diisobutylcarbinol|2-Octanol, 2-methyl-|(±)-3,5,5-Trimethyl-1-hexanol</t>
+  </si>
+  <si>
+    <t>HMDB0033916|HMDB0031732|HMDB0031265|HMDB0246514|HMDB0031153|HMDB0245214|HMDB0031198</t>
+  </si>
+  <si>
+    <t>C8H18O2</t>
+  </si>
+  <si>
+    <t>(R)-1,3-Octanediol|4,5-Octanediol|Octane-1,1-diol|(2S)-2-Butoxybutan-1-ol|2-(Hexyloxy)ethanol</t>
+  </si>
+  <si>
+    <t>HMDB0029359|HMDB0246612|HMDB0255905|HMDB0256692|HMDB0244945</t>
+  </si>
+  <si>
+    <t>2-(Hexyloxy)ethanol|(2S)-2-Butoxybutan-1-ol|Octane-1,1-diol|4,5-Octanediol|(R)-1,3-Octanediol</t>
+  </si>
+  <si>
+    <t>HMDB0244945|HMDB0256692|HMDB0255905|HMDB0246612|HMDB0029359</t>
+  </si>
+  <si>
+    <t>C6H14O4|C9H10O2|C10H14O|C8H10N2O</t>
+  </si>
+  <si>
+    <t>TRIETHYLENE GLYCOL|4-Hydroxy-3-methyl-2-(2-propynyl)-2-cyclopentene-1-one|4-Coumaryl alcohol|4,6-Decadiyn-1-ol|Cuminyl alcohol|2-(4-Methylphenyl)-1-propanol|3'-carboxy-alpha-chromanol|Chroman-2-ol|1-Acetyl-2-phenylhydrazine|4-Phenyl-2-butanol|2-(4-Methylphenyl)-2-propanol|2-Methyl-1-phenyl-2-propanol</t>
+  </si>
+  <si>
+    <t>HMDB0259193|HMDB0246651|HMDB0003654|HMDB0038913|HMDB0031817|HMDB0034846|HMDB0062349|HMDB0250203|HMDB0243811|HMDB0031613|HMDB0029652|HMDB0031570</t>
+  </si>
+  <si>
+    <t>C9H10O2|C10H14O|C8H10N2O|C6H14O4</t>
+  </si>
+  <si>
+    <t>Chroman-2-ol|3'-carboxy-alpha-chromanol|2-(4-Methylphenyl)-1-propanol|1-Acetyl-2-phenylhydrazine|Cuminyl alcohol|4-Phenyl-2-butanol|4,6-Decadiyn-1-ol|2-(4-Methylphenyl)-2-propanol|2-Methyl-1-phenyl-2-propanol|4-Coumaryl alcohol|4-Hydroxy-3-methyl-2-(2-propynyl)-2-cyclopentene-1-one|TRIETHYLENE GLYCOL</t>
+  </si>
+  <si>
+    <t>HMDB0250203|HMDB0062349|HMDB0034846|HMDB0243811|HMDB0031817|HMDB0031613|HMDB0038913|HMDB0029652|HMDB0031570|HMDB0003654|HMDB0246651|HMDB0259193</t>
+  </si>
+  <si>
+    <t>C10H14O|C8H10N2O|C6H14O4</t>
+  </si>
+  <si>
+    <t>Cuminyl alcohol|4,6-Decadiyn-1-ol|2-(4-Methylphenyl)-1-propanol|1-Acetyl-2-phenylhydrazine|4-Phenyl-2-butanol|2-(4-Methylphenyl)-2-propanol|2-Methyl-1-phenyl-2-propanol|TRIETHYLENE GLYCOL</t>
+  </si>
+  <si>
+    <t>HMDB0031817|HMDB0038913|HMDB0034846|HMDB0243811|HMDB0031613|HMDB0029652|HMDB0031570|HMDB0259193</t>
+  </si>
+  <si>
+    <t>C10H18O</t>
+  </si>
+  <si>
+    <t>(R)-Lavandulol|(4Z,7Z)-4,7-Decadien-1-ol|cis-Isogeraniol|(2E,4E)-2,4-Decadien-1-ol|Campholenic alcohol|Geraniol|beta-Geraniol|3,7-Dimethylocta-2,6-dien-1-ol|p-Menth-4(8)-en-3-ol|Pulegol|p-Menth-8-en-3-ol|(-)-Isopulegol|(+)-Neoisopulegol|3,3,6-trimethyl-1,5-heptadien-4-ol|Piperitol|trans-(-)-p-Menth-1-en-3-ol|p-Menth-1-en-5-ol|cis-p-Menth-1-en-3-ol|(-)-Dihydrocarveol|1-Dihydrocarveol|Dihydroisocarveol|Neodihydrocarveol|Neoisodihydrocarveol|(+)-Dihydrocarveol|p-Menth-1-en-9-ol|cis-Isopulegone|cis-Myrtenol|Myrcenol|3,7-Dimethyl-1,6-octadien-3-ol|(R)-3,7-Dimethyl-1,6-octadien-3-ol|cis-p-2-Menthen-1-ol|Ocimenol|(Z)-Ocimenol|p-Mentha-3-en-7-ol|Fenchol|alpha-fenchyl alcoholalpha-1,3,3-trimethyl-norbornan-2-ol|xi-p-Menth-3-en-1-ol|delta-Terpineol|alpha-Terpineol|gamma-Terpineol|m-Menth-1-en-8-ol|1-p-Menthene-6-ol|Camphene-hydrate|(-)-Borneol|(+)-Isoborneol|(-)-Isoborneol|(2S,4R)-1,7,7-Trimethylbicyclo[2.2.1]heptan-2-ol|(S)-p-Menth-1-en-4-ol|p-Menth-1-en-4-ol|(-)-trans-Isomenth-5-en-2-ol|(1R*,3R*,6S*)-3-Caranol|(1R*,2S*,3S*,6S*)-2-Caranol|(R)-m-Menth-1(6)-en-8-ol|(-)-trans-m-Menth-8-en-1-ol|beta-Terpineol|trans-beta-Terpineol|cis-p-Menth-2-en-1-ol|p-Menth-cis-2-en-1-ol|trans-p-Menth-2-en-1-ol|Thujyl alcohol|(1R,4S,5R)-4-Thujanol|(+)-trans-Sabinene hydrate|cis-Sabinene hydrate|(+)-trans-Sabinol|cis-Thujanol|Neothujol|4-Thujanol|trans-4-thujanol|Terpinenol|(-)-Pinocampheol|cis-p-Menth-2-enol</t>
+  </si>
+  <si>
+    <t>HMDB0036041|HMDB0041034|HMDB0303876|HMDB0036196|HMDB0036068|HMDB0005812|HMDB0035155|HMDB0247145|HMDB0301948|HMDB0302742|HMDB0036077|HMDB0036078|HMDB0303828|HMDB0303855|HMDB0035838|HMDB0035861|HMDB0037016|HMDB0302767|HMDB0035825|HMDB0302231|HMDB0302262|HMDB0302494|HMDB0302495|HMDB0303825|HMDB0037007|HMDB0037006|HMDB0302929|HMDB0036107|HMDB0036100|HMDB0036101|HMDB0302875|HMDB0059881|HMDB0302515|HMDB0302600|HMDB0034932|HMDB0303866|HMDB0038025|HMDB0036991|HMDB0004043|HMDB0036993|HMDB0037048|HMDB0302488|HMDB0303102|HMDB0034976|HMDB0035815|HMDB0035819|HMDB0249350|HMDB0035823|HMDB0035833|HMDB0303068|HMDB0035954|HMDB0035955|HMDB0037049|HMDB0037047|HMDB0036996|HMDB0037215|HMDB0302611|HMDB0302613|HMDB0302615|HMDB0032530|HMDB0036112|HMDB0301816|HMDB0301818|HMDB0301819|HMDB0302819|HMDB0302932|HMDB0303503|HMDB0303860|HMDB0302814|HMDB0036126|HMDB0302811</t>
+  </si>
+  <si>
+    <t>C10H20O|C8H16N2O</t>
+  </si>
+  <si>
+    <t>3,7-dimethyl-1-octen-3-ol|9-Decenol|1-Decen-3-ol|(E)-3-decen-1-ol|cis-4-Decenol|2-DECENOL|Dec-2-en-1-al|Menthol|(+)-Neomenthol|(-)-Neoisomenthol|p-Menthan-3-ol|(+)-Neoisomenthol|(¬±)-Isomenthol|D-Citronellol|L-Citronellol|alpha-Citronellol|3-Methyl-3-propan-2-ylcyclohexan-1-ol|Menthanol|(±)-Carvomenthol|p-Menthan-1-ol|p-Menthan-4-ol|N-(3-(Dimethylamino)propyl)acrylamide</t>
+  </si>
+  <si>
+    <t>HMDB0303850|HMDB0059861|HMDB0039854|HMDB0013810|HMDB0032206|HMDB0032532|HMDB0303153|HMDB0003352|HMDB0035763|HMDB0035764|HMDB0035765|HMDB0041628|HMDB0303820|HMDB0035093|HMDB0035094|HMDB0037171|HMDB0258008|HMDB0034717|HMDB0037223|HMDB0037020|HMDB0035726|HMDB0246231</t>
   </si>
   <si>
     <t>C10H22O</t>
   </si>
   <si>
-    <t>3,7-Dimethyl-3-octanol|3,6-Dimethyl-3-octanol</t>
-  </si>
-  <si>
-    <t>HMDB0035246|HMDB0246078</t>
+    <t>Decyl alcohol|3-Decanol|Decan-2-ol|3,6-Dimethyl-3-octanol|3,7-Dimethyl-3-octanol|(R)-Dihydrocitronellol</t>
+  </si>
+  <si>
+    <t>HMDB0011624|HMDB0031408|HMDB0303078|HMDB0246078|HMDB0035246|HMDB0035411</t>
   </si>
   <si>
     <t>C11H24O</t>
   </si>
   <si>
-    <t>2,4-Dimethyl-4-nonanol|6,10-dihydromyrcenol</t>
-  </si>
-  <si>
-    <t>HMDB0032239|HMDB0303854</t>
-  </si>
-  <si>
-    <t>C6H12N2O4|C9H8N2O2</t>
-  </si>
-  <si>
-    <t>Glycyl-Threonine|Alanylserine|Threonylglycine|Serylalanine|5-Phenylhydantoin</t>
-  </si>
-  <si>
-    <t>HMDB0028851|HMDB0028696|HMDB0029061|HMDB0029032|HMDB0246838</t>
-  </si>
-  <si>
-    <t>Neopentyl alcohol|3-pentanol|3-Methyl-2-butanol|1-Pentanol|(S)-2-Methyl-1-butanol|2-Pentanol|Isopentanol|2-Methyl-2-butanol|Ethylurea</t>
-  </si>
-  <si>
-    <t>HMDB0255527|HMDB0303831|HMDB0033777|HMDB0013036|HMDB0031527|HMDB0031599|HMDB0006007|HMDB0033772|HMDB0252088</t>
-  </si>
-  <si>
-    <t>C6H14O</t>
-  </si>
-  <si>
-    <t>4-Methyl-2-pentanol|(±)-3-Methyl-1-pentanol|2-Hexanol|2-Methylpentan-3-ol|Isohexanol|3-methyl-2-pentanol|3,3-Dimethyl-2-butanol|3-Hexanol|3-Methylpentan-3-ol|2-Methylpentan-2-ol</t>
-  </si>
-  <si>
-    <t>HMDB0246515|HMDB0033676|HMDB0061886|HMDB0302390|HMDB0059889|HMDB0062726|HMDB0245993|HMDB0031493|HMDB0302446|HMDB0302442</t>
-  </si>
-  <si>
-    <t>2-Methylpentan-2-ol|3-Methylpentan-3-ol|3,3-Dimethyl-2-butanol|4-Methyl-2-pentanol|(±)-3-Methyl-1-pentanol|2-Hexanol|2-Methylpentan-3-ol|Isohexanol|3-methyl-2-pentanol|3-Hexanol</t>
-  </si>
-  <si>
-    <t>HMDB0302442|HMDB0302446|HMDB0245993|HMDB0246515|HMDB0033676|HMDB0061886|HMDB0302390|HMDB0059889|HMDB0062726|HMDB0031493</t>
-  </si>
-  <si>
-    <t>C4H8N2O2|C6H12O2</t>
-  </si>
-  <si>
-    <t>N,N'-Diacetylhydrazine|N-Nitroso-3-hydroxypyrrolidine|1,2-Cyclohexanediol|Diacetone alcohol</t>
-  </si>
-  <si>
-    <t>HMDB0060496|HMDB0061163|HMDB0244061|HMDB0031511</t>
-  </si>
-  <si>
-    <t>C7H16O</t>
-  </si>
-  <si>
-    <t>xi-3-Heptanol</t>
-  </si>
-  <si>
-    <t>HMDB0031481</t>
-  </si>
-  <si>
-    <t>C4H10N2O2|C6H14O2</t>
-  </si>
-  <si>
-    <t>N-Ethyl-N-(2-hydroxyethyl)nitrosamine|2-Methyl-1,3-pentanediol|4-Methyl-1,2-dihydroxypentane|2-Butoxyethanol|1-Isopropoxy-2-propanol</t>
-  </si>
-  <si>
-    <t>HMDB0244541|HMDB0245212|HMDB0059740|HMDB0031327|HMDB0243911</t>
-  </si>
-  <si>
-    <t>C6H14O2|C4H10N2O2</t>
-  </si>
-  <si>
-    <t>1-Isopropoxy-2-propanol|2-Butoxyethanol|4-Methyl-1,2-dihydroxypentane|2-Methyl-1,3-pentanediol|N-Ethyl-N-(2-hydroxyethyl)nitrosamine</t>
-  </si>
-  <si>
-    <t>HMDB0243911|HMDB0031327|HMDB0059740|HMDB0245212|HMDB0244541</t>
-  </si>
-  <si>
-    <t>C6H6N2O|C8H10O|C4H10O4</t>
-  </si>
-  <si>
-    <t>Picolinamide|2-Phenylethanol|4-Methylbenzyl alcohol|1-Phenylethanol|Erythritol|D-Threitol</t>
-  </si>
-  <si>
-    <t>HMDB0256533|HMDB0033944|HMDB0041609|HMDB0032619|HMDB0002994|HMDB0004136</t>
-  </si>
-  <si>
-    <t>C6H8O3|C3H3F3O2|C4H4N2O3</t>
-  </si>
-  <si>
-    <t>Osmundalactone|L-erythro-5-(1-Hydroxyethyl)-2(5H)-furanone|(±)-Furaneol|2-Ethyl-3,4-dihydroxyfuran|1,1,1-Trifluoro-3-hydroxypropan-2-one|3-Hydroxy-4,5-dimethyl-2(5H)-furanone|Barbituric acid</t>
-  </si>
-  <si>
-    <t>HMDB0031303|HMDB0033285|HMDB0040594|HMDB0031847|HMDB0245298|HMDB0031306|HMDB0041833</t>
-  </si>
-  <si>
-    <t>2,3,4-Trimethyl-3-pentanol|2,4,4-Trimethyl-2-pentanol|2-Propyl-1-pentanol|2-Ethyl-4-methyl-1-pentanol|(S)-3-Ethyl-4-methylpentanol|N-(2-Hydroxyethyl)piperazine</t>
-  </si>
-  <si>
-    <t>HMDB0036166|HMDB0245471|HMDB0094707|HMDB0013818|HMDB0059859|HMDB0254989</t>
-  </si>
-  <si>
-    <t>C7H16O2</t>
-  </si>
-  <si>
-    <t>3,4-Heptanediol</t>
-  </si>
-  <si>
-    <t>HMDB0246037</t>
-  </si>
-  <si>
-    <t>C9H12O|C7H8N2O|C5H12O4</t>
-  </si>
-  <si>
-    <t>3-Phenyl-1-propanol|Benzohydrazide|2-Phenyl-1-propanol|(R)-2-Phenyl-1-propanol|3-Aminobenzamide|1-Phenyl-1-propanol|(±)-1-(4-Methylphenyl)ethanol|2-Methylerythritol|2-C-Methyl-D-erythritol|1-Deoxy-D-ribitol|3-Deoxy-D-arabinitol|2-Deoxy-D-ribitol</t>
-  </si>
-  <si>
-    <t>HMDB0033962|HMDB0249018|HMDB0031628|HMDB0303917|HMDB0245814|HMDB0031627|HMDB0034378|HMDB0011659|HMDB0245046|HMDB0041486|HMDB0031201|HMDB0033919</t>
-  </si>
-  <si>
-    <t>C8H12NO|C8H10O2|C5H6N4O</t>
-  </si>
-  <si>
-    <t>Phenylethanolaminium|styrene glycol (1-phenyl 1,2-ethanediol)|2-Phenoxyethanol|Tyrosol|8-Hydroxypurine|4-Methoxybenzyl alcohol</t>
-  </si>
-  <si>
-    <t>HMDB0062626|HMDB0303891|HMDB0041607|HMDB0004284|HMDB0012182|HMDB0034241</t>
-  </si>
-  <si>
-    <t>C9H18O</t>
-  </si>
-  <si>
-    <t>Dihydroisophorol</t>
-  </si>
-  <si>
-    <t>HMDB0029557</t>
-  </si>
-  <si>
-    <t>C9H20O|C7H16N2O</t>
-  </si>
-  <si>
-    <t>2-Octanol, 2-methyl-|Diisobutylcarbinol|4-(Aminomethyl)-1-methylpiperidin-4-ol</t>
-  </si>
-  <si>
-    <t>HMDB0245214|HMDB0031153|HMDB0246299</t>
-  </si>
-  <si>
-    <t>C10H14O|C8H10N2O|C6H14O4</t>
-  </si>
-  <si>
-    <t>4-Phenyl-2-butanol|2-Methyl-1-phenyl-2-propanol|1-Acetyl-2-phenylhydrazine|2-(4-Methylphenyl)-2-propanol|TRIETHYLENE GLYCOL</t>
-  </si>
-  <si>
-    <t>HMDB0031613|HMDB0031570|HMDB0243811|HMDB0029652|HMDB0259193</t>
-  </si>
-  <si>
-    <t>C8H14O5|C11H14N2O|C6H10N2O5|C7H14N2O4|C6H14N4O3</t>
-  </si>
-  <si>
-    <t>3-Hydroxysuberic acid|Diethyl L-malate|beta-Amino-1H-indole-3-propanol|N-carbamoylglutamic Acid|Alanylthreonine|Threonylalanine|2-Amino-4-[(2-hydroxy-1-oxopropyl)amino]butanoic acid|N-(gamma-Glutamyl)ethanolamine|Alline|L-erythro-4-Hydroxyarginine</t>
-  </si>
-  <si>
-    <t>HMDB0000325|HMDB0040220|HMDB0244977|HMDB0062795|HMDB0028697|HMDB0029054|HMDB0031412|HMDB0039222|HMDB0030533|HMDB0034326</t>
-  </si>
-  <si>
-    <t>C8H16N2O4|C11H12N2O2|C7H12N2O5|C13H16O2|C7H16N4O3</t>
-  </si>
-  <si>
-    <t>N-(3-Amino-2-hydroxy-3-oxopropyl)-L-valine|Serylvaline|Valylserine|3-Hydroxymethylantipyrine|Alanyl-Aspartic acid|S-nirvanol|N6-Acetyl-5S-hydroxy-L-lysine|3,4-Dihydroxy-2-hydroxymethyl-1-pyrrolidinepropanamide|1-Hydroxycyclohexyl phenyl ketone|(+)-gamma-Hydroxy-L-homoarginine|6-(1-Hydroxyethyl)-2,2-dimethyl-2H-1-benzopyran</t>
-  </si>
-  <si>
-    <t>HMDB0245695|HMDB0029052|HMDB0029136|HMDB0013840|HMDB0304774|HMDB0060967|HMDB0033891|HMDB0039948|HMDB0247678|HMDB0301838|HMDB0031553</t>
-  </si>
-  <si>
-    <t>C17H26N2O2</t>
-  </si>
-  <si>
-    <t>3-hydroxyropivacaine</t>
-  </si>
-  <si>
-    <t>HMDB0060962</t>
-  </si>
-  <si>
-    <t>C19H26O3</t>
-  </si>
-  <si>
-    <t>11b-Hydroxyandrost-4-ene-3,17-dione|Yucalexin B'11|2-Hydroxyestradiol-3-methyl ether</t>
-  </si>
-  <si>
-    <t>HMDB0006773|HMDB0036696|HMDB0000380</t>
-  </si>
-  <si>
-    <t>3-Hexanol|Isohexanol|3-methyl-2-pentanol|(±)-3-Methyl-1-pentanol|2-Hexanol|2-Methylpentan-3-ol|4-Methyl-2-pentanol|3,3-Dimethyl-2-butanol|3-Methylpentan-3-ol|2-Methylpentan-2-ol</t>
-  </si>
-  <si>
-    <t>HMDB0031493|HMDB0059889|HMDB0062726|HMDB0033676|HMDB0061886|HMDB0302390|HMDB0246515|HMDB0245993|HMDB0302446|HMDB0302442</t>
-  </si>
-  <si>
-    <t>C6H9NOS|C6H9NO3</t>
-  </si>
-  <si>
-    <t>5-(2-Hydroxyethyl)-4-methylthiazole|6-Oxopiperidine-2-carboxylic acid|5-ethyl-5-methyl-2,4-oxazolidinedione|5-(1-Hydroxyethyl)-4-methylthiazole</t>
-  </si>
-  <si>
-    <t>HMDB0032985|HMDB0061705|HMDB0061082|HMDB0246712</t>
-  </si>
-  <si>
-    <t>C8H18O2</t>
-  </si>
-  <si>
-    <t>4,5-Octanediol|2-(Hexyloxy)ethanol|(2S)-2-Butoxybutan-1-ol</t>
-  </si>
-  <si>
-    <t>HMDB0246612|HMDB0244945|HMDB0256692</t>
-  </si>
-  <si>
-    <t>(2S)-2-Butoxybutan-1-ol|2-(Hexyloxy)ethanol|4,5-Octanediol</t>
-  </si>
-  <si>
-    <t>HMDB0256692|HMDB0244945|HMDB0246612</t>
-  </si>
-  <si>
-    <t>C6H14O4|C9H10O2|C10H14O|C8H10N2O</t>
-  </si>
-  <si>
-    <t>TRIETHYLENE GLYCOL|4-Hydroxy-3-methyl-2-(2-propynyl)-2-cyclopentene-1-one|4-Coumaryl alcohol|3'-carboxy-alpha-chromanol|4-Phenyl-2-butanol|Chroman-2-ol|2-Methyl-1-phenyl-2-propanol|1-Acetyl-2-phenylhydrazine|2-(4-Methylphenyl)-2-propanol</t>
-  </si>
-  <si>
-    <t>HMDB0259193|HMDB0246651|HMDB0003654|HMDB0062349|HMDB0031613|HMDB0250203|HMDB0031570|HMDB0243811|HMDB0029652</t>
-  </si>
-  <si>
-    <t>C10H14O|C9H10O2|C8H10N2O|C6H14O4</t>
-  </si>
-  <si>
-    <t>4-Phenyl-2-butanol|Chroman-2-ol|3'-carboxy-alpha-chromanol|2-Methyl-1-phenyl-2-propanol|1-Acetyl-2-phenylhydrazine|2-(4-Methylphenyl)-2-propanol|4-Coumaryl alcohol|4-Hydroxy-3-methyl-2-(2-propynyl)-2-cyclopentene-1-one|TRIETHYLENE GLYCOL</t>
-  </si>
-  <si>
-    <t>HMDB0031613|HMDB0250203|HMDB0062349|HMDB0031570|HMDB0243811|HMDB0029652|HMDB0003654|HMDB0246651|HMDB0259193</t>
-  </si>
-  <si>
-    <t>C10H18O</t>
-  </si>
-  <si>
-    <t>cis-p-2-Menthen-1-ol|3,3,6-trimethyl-1,5-heptadien-4-ol|Ocimenol|(Z)-Ocimenol|Myrcenol</t>
-  </si>
-  <si>
-    <t>HMDB0302875|HMDB0303855|HMDB0059881|HMDB0302515|HMDB0036107</t>
-  </si>
-  <si>
-    <t>C10H20O|C8H16N2O</t>
-  </si>
-  <si>
-    <t>3-Methyl-3-propan-2-ylcyclohexan-1-ol|3,7-dimethyl-1-octen-3-ol|N-(3-(Dimethylamino)propyl)acrylamide</t>
-  </si>
-  <si>
-    <t>HMDB0258008|HMDB0303850|HMDB0246231</t>
+    <t>1-Undecanol|2-Undecanol|2,4-Dimethyl-4-nonanol|6,10-dihydromyrcenol</t>
+  </si>
+  <si>
+    <t>HMDB0013113|HMDB0030942|HMDB0032239|HMDB0303854</t>
+  </si>
+  <si>
+    <t>2-Undecanol|1-Undecanol|2,4-Dimethyl-4-nonanol|6,10-dihydromyrcenol</t>
+  </si>
+  <si>
+    <t>HMDB0030942|HMDB0013113|HMDB0032239|HMDB0303854</t>
+  </si>
+  <si>
+    <t>C7H12O5|C10H8O3|C9H8N2O2|C6H12N2O4</t>
+  </si>
+  <si>
+    <t>3-Isopropylmalic acid|2-Isopropylmalic acid|2,3-Dimethyl-3-hydroxyglutaric acid|(±)-Glycerol 1,2-diacetate|10-Hydroxy-2,8-decadiene-4,6-diynoic acid|5-Phenylhydantoin|Threonylglycine|Glycyl-Threonine|Serylalanine|Alanylserine</t>
+  </si>
+  <si>
+    <t>HMDB0012156|HMDB0000402|HMDB0002025|HMDB0031712|HMDB0031054|HMDB0246838|HMDB0029061|HMDB0028851|HMDB0029032|HMDB0028696</t>
   </si>
   <si>
     <t>C10H14O3|C6H14O6|C13H10O</t>
   </si>
   <si>
-    <t>(S)-3-(2-Methylphenoxy)propane-1,2-diol|(±)-threo-Anethole glycol|(¬±)-erythro-Anethole glycol|Dihydroconiferyl alcohol|Verimol J|3-Hydroxymethyl xylitol|Galactitol|Sorbitol|Mannitol|L-Iditol|D-Iditol|Peperinic acid|9-Hydroxyfluorene</t>
-  </si>
-  <si>
-    <t>HMDB0247880|HMDB0032607|HMDB0303315|HMDB0303757|HMDB0036522|HMDB0245900|HMDB0000107|HMDB0000247|HMDB0000765|HMDB0011632|HMDB0250766|HMDB0038181|HMDB0059803</t>
+    <t>(S)-3-(2-Methylphenoxy)propane-1,2-diol|Dihydroconiferyl alcohol|Verimol J|(±)-threo-Anethole glycol|(¬±)-erythro-Anethole glycol|Peperinic acid|Galactitol|Sorbitol|Mannitol|L-Iditol|D-Iditol|3-Hydroxymethyl xylitol|9-Hydroxyfluorene</t>
+  </si>
+  <si>
+    <t>HMDB0247880|HMDB0303757|HMDB0036522|HMDB0032607|HMDB0303315|HMDB0038181|HMDB0000107|HMDB0000247|HMDB0000765|HMDB0011632|HMDB0250766|HMDB0245900|HMDB0059803</t>
   </si>
   <si>
     <t>C13H10O|C10H14O3|C6H14O6</t>
   </si>
   <si>
-    <t>9-Hydroxyfluorene|Peperinic acid|Verimol J|(±)-threo-Anethole glycol|(¬±)-erythro-Anethole glycol|Dihydroconiferyl alcohol|(S)-3-(2-Methylphenoxy)propane-1,2-diol|3-Hydroxymethyl xylitol|Galactitol|Sorbitol|Mannitol|L-Iditol|D-Iditol</t>
-  </si>
-  <si>
-    <t>HMDB0059803|HMDB0038181|HMDB0036522|HMDB0032607|HMDB0303315|HMDB0303757|HMDB0247880|HMDB0245900|HMDB0000107|HMDB0000247|HMDB0000765|HMDB0011632|HMDB0250766</t>
+    <t>9-Hydroxyfluorene|Peperinic acid|(±)-threo-Anethole glycol|(¬±)-erythro-Anethole glycol|Verimol J|Dihydroconiferyl alcohol|(S)-3-(2-Methylphenoxy)propane-1,2-diol|Galactitol|Sorbitol|Mannitol|L-Iditol|D-Iditol|3-Hydroxymethyl xylitol</t>
+  </si>
+  <si>
+    <t>HMDB0059803|HMDB0038181|HMDB0032607|HMDB0303315|HMDB0036522|HMDB0303757|HMDB0247880|HMDB0000107|HMDB0000247|HMDB0000765|HMDB0011632|HMDB0250766|HMDB0245900</t>
+  </si>
+  <si>
+    <t>C12H26O</t>
+  </si>
+  <si>
+    <t>Dodecanol|2-Butyl-1-octanol|2,2-Dimethyldecan-1-ol</t>
+  </si>
+  <si>
+    <t>HMDB0011626|HMDB0041288|HMDB0302690</t>
+  </si>
+  <si>
+    <t>C8H14O5|C11H14N2O|C11H10O3|C6H10N2O5|C7H14N2O4|C6H14N4O3</t>
+  </si>
+  <si>
+    <t>Diethyl L-malate|beta-Amino-1H-indole-3-propanol|3-Hydroxysuberic acid|6-(2-Hydroxyethoxy)-6-oxohexanoic acid|Methyl (Z,Z)-10-hydroxy-2,8-decadiene-4,6-diynoate|N-carbamoylglutamic Acid|Threonylalanine|Alanylthreonine|2-Amino-4-[(2-hydroxy-1-oxopropyl)amino]butanoic acid|Alline|N-(gamma-Glutamyl)ethanolamine|L-erythro-4-Hydroxyarginine</t>
+  </si>
+  <si>
+    <t>HMDB0040220|HMDB0244977|HMDB0000325|HMDB0061681|HMDB0039359|HMDB0062795|HMDB0029054|HMDB0028697|HMDB0031412|HMDB0030533|HMDB0039222|HMDB0034326</t>
   </si>
   <si>
     <t>C11H17NO2|C12H21NO</t>
   </si>
   <si>
-    <t>[3-(2-Aminopropyl)-6-methylidenecyclohexa-1,3-dien-1-yl]methanediol|2-hydroxymexiletine|1-Amino-3-hydroxymethyl-5-methyl-adamantane|3-Amino-1-hydroxy-5,7-dimethyl-adamantane|3-(1-Aminoethyl)adamantan-1-ol|p-Hydroxyrimantadine</t>
-  </si>
-  <si>
-    <t>HMDB0257571|HMDB0060953|HMDB0060703|HMDB0060738|HMDB0245767|HMDB0244425</t>
-  </si>
-  <si>
-    <t>C10H18O5|C9H18N2O4|C13H14O3|C12H14N2O2|C8H14N2O5|C14H18O2</t>
-  </si>
-  <si>
-    <t>2-Hydroxydecanedioic acid|5-Hydroxysebacate|3-Hydroxysebacic acid|Threoninyl-Valine|Leucyl-Serine|Serylisoleucine|Isoleucyl-Serine|(S,E)-2-(5-Hydroxy-8,9-dihydro-5H-benzo[7]annulen-6(7H)-ylidene)acetic acid|Valylthreonine|Threonylvaline|(R)-Bitalin A|Serylleucine|Ser-Leu|Propranolol glycol|3H-Pyrazol-3-one, 1,2-dihydro-4-(hydroxymethyl)-1,5-dimethyl-2-phenyl-|Pantothenamide|Serylhydroxyproline|(R)-Pterosin B|Hydroxyprolyl-Serine</t>
-  </si>
-  <si>
-    <t>HMDB0000424|HMDB0029189|HMDB0000350|HMDB0304791|HMDB0028938|HMDB0029042|HMDB0028916|HMDB0250015|HMDB0029137|HMDB0029074|HMDB0040358|HMDB0029043|HMDB0258242|HMDB0256835|HMDB0244281|HMDB0041313|HMDB0029040|HMDB0030759|HMDB0028872</t>
-  </si>
-  <si>
-    <t>C8H14O7|C7H14N2O6|C10H10N2O4|C7H14N2O4S|C11H14N2O3|C12H14O4</t>
-  </si>
-  <si>
-    <t>Ethyl glucuronide|Glucosamine, N-carbamoyl-(6CI)|Dioxidine|beta-D-Glucopyranosylurea|Cysteinyl-Threonine|Threonylcysteine|Glycyl-Phenylalanine|Phenylalanyl-Glycine|Dihydrodeoxy-8-epiaustdiol|Carboxyethyl-hydroxychroman|2,3-Dihydro-3-hydroxy-6-methoxy-2,2-dimethyl-4H-1-benzopyran-4-one|alpha-Carboxyethyl hydroxychroman|Carboxy-ethyl-hydroxychroman</t>
-  </si>
-  <si>
-    <t>HMDB0010325|HMDB0248482|HMDB0251436|HMDB0249119|HMDB0028785|HMDB0029058|HMDB0028848|HMDB0304788|HMDB0031668|HMDB0249658|HMDB0041379|HMDB0257876|HMDB0249650</t>
-  </si>
-  <si>
-    <t>4-Methyl-2-pentanol|(±)-3-Methyl-1-pentanol|2-Hexanol|2-Methylpentan-3-ol|Isohexanol|3-methyl-2-pentanol|3-Hexanol|3,3-Dimethyl-2-butanol|3-Methylpentan-3-ol|2-Methylpentan-2-ol</t>
-  </si>
-  <si>
-    <t>HMDB0246515|HMDB0033676|HMDB0061886|HMDB0302390|HMDB0059889|HMDB0062726|HMDB0031493|HMDB0245993|HMDB0302446|HMDB0302442</t>
-  </si>
-  <si>
-    <t>C17H24N2O</t>
-  </si>
-  <si>
-    <t>Pilsicainide</t>
-  </si>
-  <si>
-    <t>HMDB0256549</t>
+    <t>[3-(2-Aminopropyl)-6-methylidenecyclohexa-1,3-dien-1-yl]methanediol|2-hydroxymexiletine|1-Amino-3-hydroxymethyl-5-methyl-adamantane|CC12C(CC(CC1)C2(C)C)=CC(O)N|3-Amino-1-hydroxy-5,7-dimethyl-adamantane|3-(1-Aminoethyl)adamantan-1-ol|p-Hydroxyrimantadine</t>
+  </si>
+  <si>
+    <t>HMDB0257571|HMDB0060953|HMDB0060703|HMDB0244248|HMDB0060738|HMDB0245767|HMDB0244425</t>
+  </si>
+  <si>
+    <t>C13H28O</t>
+  </si>
+  <si>
+    <t>Tridecanol</t>
+  </si>
+  <si>
+    <t>HMDB0013316</t>
+  </si>
+  <si>
+    <t>C9H16O5|C8H16N2O4|C7H12N2O5|C11H12N2O2|C13H16O2|C7H16N4O3</t>
+  </si>
+  <si>
+    <t>2-Hydroxyglutaric acid diethyl ester|N-(3-Amino-2-hydroxy-3-oxopropyl)-L-valine|Serylvaline|Valylserine|Alanyl-Aspartic acid|S-nirvanol|3-Hydroxymethylantipyrine|N6-Acetyl-5S-hydroxy-L-lysine|3,4-Dihydroxy-2-hydroxymethyl-1-pyrrolidinepropanamide|1-Hydroxycyclohexyl phenyl ketone|(+)-gamma-Hydroxy-L-homoarginine|6-(1-Hydroxyethyl)-2,2-dimethyl-2H-1-benzopyran</t>
+  </si>
+  <si>
+    <t>HMDB0303910|HMDB0245695|HMDB0029052|HMDB0029136|HMDB0304774|HMDB0060967|HMDB0013840|HMDB0033891|HMDB0039948|HMDB0247678|HMDB0301838|HMDB0031553</t>
+  </si>
+  <si>
+    <t>C14H30O</t>
+  </si>
+  <si>
+    <t>Tetradecanol|Tetradecan-2-ol</t>
+  </si>
+  <si>
+    <t>HMDB0011638|HMDB0062733</t>
+  </si>
+  <si>
+    <t>C10H18O5|C13H14O3|C9H18N2O4|C12H14N2O2|C14H18O2|C8H14N2O5</t>
+  </si>
+  <si>
+    <t>2-Hydroxydecanedioic acid|3-Hydroxysebacic acid|5-Hydroxysebacate|Propranolol glycol|(R)-Bitalin A|(S,E)-2-(5-Hydroxy-8,9-dihydro-5H-benzo[7]annulen-6(7H)-ylidene)acetic acid|Leucyl-Serine|Threoninyl-Valine|3H-Pyrazol-3-one, 1,2-dihydro-4-(hydroxymethyl)-1,5-dimethyl-2-phenyl-|Threonylvaline|Valylthreonine|Isoleucyl-Serine|Serylisoleucine|Serylleucine|Ser-Leu|(R)-Pterosin B|Pantothenamide|Serylhydroxyproline|Hydroxyprolyl-Serine</t>
+  </si>
+  <si>
+    <t>HMDB0000424|HMDB0000350|HMDB0029189|HMDB0256835|HMDB0040358|HMDB0250015|HMDB0028938|HMDB0304791|HMDB0244281|HMDB0029074|HMDB0029137|HMDB0028916|HMDB0029042|HMDB0029043|HMDB0258242|HMDB0030759|HMDB0041313|HMDB0029040|HMDB0028872</t>
+  </si>
+  <si>
+    <t>C10H10N2O4|C8H14O7|C7H14N2O4S|C11H14N2O3|C7H14N2O6|C12H14O4</t>
+  </si>
+  <si>
+    <t>Dioxidine|Ethyl glucuronide|Threonylcysteine|Cysteinyl-Threonine|Glycyl-Phenylalanine|Glucosamine, N-carbamoyl-(6CI)|beta-D-Glucopyranosylurea|Phenylalanyl-Glycine|Carboxyethyl-hydroxychroman|Carboxy-ethyl-hydroxychroman|alpha-Carboxyethyl hydroxychroman|Dihydrodeoxy-8-epiaustdiol|2,3-Dihydro-3-hydroxy-6-methoxy-2,2-dimethyl-4H-1-benzopyran-4-one</t>
+  </si>
+  <si>
+    <t>HMDB0251436|HMDB0010325|HMDB0029058|HMDB0028785|HMDB0028848|HMDB0248482|HMDB0249119|HMDB0304788|HMDB0249658|HMDB0249650|HMDB0257876|HMDB0031668|HMDB0041379</t>
+  </si>
+  <si>
+    <t>C15H32O</t>
+  </si>
+  <si>
+    <t>Pentadecanol|3,7,11-trimethyldodecan-1-ol</t>
+  </si>
+  <si>
+    <t>HMDB0013299|HMDB0062728</t>
+  </si>
+  <si>
+    <t>C16H34O</t>
+  </si>
+  <si>
+    <t>1-Hexadecanol</t>
+  </si>
+  <si>
+    <t>HMDB0003424</t>
+  </si>
+  <si>
+    <t>C18H38O</t>
+  </si>
+  <si>
+    <t>Octadecanol</t>
+  </si>
+  <si>
+    <t>HMDB0002350</t>
+  </si>
+  <si>
+    <t>C15H28O4|C18H24O2|C19H28O|C17H24N2O</t>
+  </si>
+  <si>
+    <t>7(14)-Bisabolene-2,3,10,11-tetrol|(8R,9S,13S,14S)-3-Hydroxy-13-methyl-4,6,7,8,9,11,12,14,15,16-decahydro-3H-cyclopenta[a]phenanthren-17-one|Estradiol|17alpha-Estradiol|1,3,5(10)-Estratriene-3,17 beta-diol|5,16-Androstadien-3beta-ol|Pilsicainide</t>
+  </si>
+  <si>
+    <t>HMDB0035918|HMDB0260179|HMDB0000151|HMDB0000429|HMDB0244189|HMDB0248392|HMDB0256549</t>
+  </si>
+  <si>
+    <t>C19H32O</t>
+  </si>
+  <si>
+    <t>5a-Androstan-3b-ol|(3R)-10,13-Dimethyl-2,3,4,5,6,7,8,9,11,12,14,15,16,17-tetradecahydro-1H-cyclopenta[a]phenanthren-3-ol</t>
+  </si>
+  <si>
+    <t>HMDB0005830|HMDB0246254</t>
+  </si>
+  <si>
+    <t>C19H28O2|C18H24O3|C15H28O5</t>
+  </si>
+  <si>
+    <t>(8R,9S,10R,13S,14S,17S)-17-Hydroxy-11,13-dimethyl-2,6,7,8,9,10,11,12,14,15,16,17-dodecahydro-1H-cyclopenta[a]phenanthren-3-one|7A-Methyl-19-nortestosterone|4-Hydroxyestradiol|4-hydroxystradiol|2-Hydroxyestradiol|1,3,5[10]-Estratriene-2,3-17 beta-triol|Estriol|16b-Hydroxyestradiol|17-Epiestriol|16,17-Epiestriol|Dehydroepiandrosterone|Dehydroandrosterone|4-Dihydroboldenone|Testosterone|Epitestosterone|Testosterone-d3|Normethandrone|7alpha-hydroxyestradiol|6-Hydroxypentadecanedioic acid</t>
+  </si>
+  <si>
+    <t>HMDB0260175|HMDB0253192|HMDB0005896|HMDB0060999|HMDB0000338|HMDB0244190|HMDB0000153|HMDB0000347|HMDB0000356|HMDB0000431|HMDB0000077|HMDB0005962|HMDB0006035|HMDB0000234|HMDB0000628|HMDB0242698|HMDB0255746|HMDB0062741|HMDB0031885</t>
+  </si>
+  <si>
+    <t>C19H30O2|C17H26N2O2|C15H30O5</t>
+  </si>
+  <si>
+    <t>Dihydrotestosterone|5b-Dihydrotestosterone|5beta-Dihydroepitestosterone|(17beta)-17-Hydroxyandrostan-3-one|5-Androstenediol|4-Androstene-3,17-diol|4-Androstenediol|Androst-5-ene-3beta,17beta-diol|Androstendiol|Androsterone|Epiandrosterone|Etiocholanolone|Epietiocholanolone|3-alpha-hydroxy-5-beta-androstan-17-one|(8R,9R,10R,13S,14S)-10,13-Dimethyl-4,5,6,7,8,9,11,12,14,15,16,17-dodecahydro-3H-cyclopenta[a]phenanthrene-3,17-diol|3-hydroxyropivacaine|Glycerol 1-(5-hydroxydodecanoate)</t>
+  </si>
+  <si>
+    <t>HMDB0002961|HMDB0006770|HMDB0062608|HMDB0243561|HMDB0003818|HMDB0246370|HMDB0005849|HMDB0244754|HMDB0248415|HMDB0000031|HMDB0000365|HMDB0000490|HMDB0000546|HMDB0245800|HMDB0257771|HMDB0060962|HMDB0040168</t>
+  </si>
+  <si>
+    <t>C19H30O2|C15H30O5</t>
+  </si>
+  <si>
+    <t>(8R,9R,10R,13S,14S)-10,13-Dimethyl-4,5,6,7,8,9,11,12,14,15,16,17-dodecahydro-3H-cyclopenta[a]phenanthrene-3,17-diol|Androsterone|Epiandrosterone|Etiocholanolone|Epietiocholanolone|3-alpha-hydroxy-5-beta-androstan-17-one|Androstendiol|Androst-5-ene-3beta,17beta-diol|4-Androstenediol|4-Androstene-3,17-diol|5-Androstenediol|Dihydrotestosterone|5b-Dihydrotestosterone|5beta-Dihydroepitestosterone|(17beta)-17-Hydroxyandrostan-3-one|Glycerol 1-(5-hydroxydodecanoate)</t>
+  </si>
+  <si>
+    <t>HMDB0257771|HMDB0000031|HMDB0000365|HMDB0000490|HMDB0000546|HMDB0245800|HMDB0248415|HMDB0244754|HMDB0005849|HMDB0246370|HMDB0003818|HMDB0002961|HMDB0006770|HMDB0062608|HMDB0243561|HMDB0040168</t>
+  </si>
+  <si>
+    <t>Androstendiol|Androst-5-ene-3beta,17beta-diol|4-Androstenediol|Androsterone|Epiandrosterone|Etiocholanolone|Epietiocholanolone|3-alpha-hydroxy-5-beta-androstan-17-one|4-Androstene-3,17-diol|(8R,9R,10R,13S,14S)-10,13-Dimethyl-4,5,6,7,8,9,11,12,14,15,16,17-dodecahydro-3H-cyclopenta[a]phenanthrene-3,17-diol|5-Androstenediol|Dihydrotestosterone|5b-Dihydrotestosterone|5beta-Dihydroepitestosterone|(17beta)-17-Hydroxyandrostan-3-one|Glycerol 1-(5-hydroxydodecanoate)</t>
+  </si>
+  <si>
+    <t>HMDB0248415|HMDB0244754|HMDB0005849|HMDB0000031|HMDB0000365|HMDB0000490|HMDB0000546|HMDB0245800|HMDB0246370|HMDB0257771|HMDB0003818|HMDB0002961|HMDB0006770|HMDB0062608|HMDB0243561|HMDB0040168</t>
+  </si>
+  <si>
+    <t>C20H42O</t>
+  </si>
+  <si>
+    <t>Arachidyl alcohol</t>
+  </si>
+  <si>
+    <t>HMDB0011619</t>
+  </si>
+  <si>
+    <t>C19H26O3|C15H26O6|C16H30O5</t>
+  </si>
+  <si>
+    <t>7-Keto-dehydroepiandrosterone|19-Oxotestosterone|(8S,9R,10R,13S,14S)-11-Hydroxy-10,13-dimethyl-5,6,7,8,9,11,12,14,15,16-decahydro-4H-cyclopenta[a]phenanthrene-3,17-dione|7a-Hydroxyandrost-4-ene-3,17-dione|16a-Hydroxyandrost-4-ene-3,17-dione|11b-Hydroxyandrost-4-ene-3,17-dione|(8R,9R,10S,11S,13R,14R)-11-Hydroxy-10,13-dimethyl-2,6,7,8,9,11,12,14,15,16-decahydro-1H-cyclopenta[a]phenanthrene-3,17-dione|11-Ketotestosterone|(8R,9S,10R,13S,14S,17S)-17-Hydroxy-10,13-dimethyl-6,7,8,9,11,12,14,15,16,17-decahydro-1H-cyclopenta[a]phenanthrene-2,3-dione|Yucalexin B'11|tributyrylglycerol|19-Hydroxyandrost-4-ene-3,17-dione|xi-8-Hydroxyhexadecanedioic acid|xi-7-Hydroxyhexadecanedioic acid|4-Androsten-4-ol-3,17-dione|EPIMESTROL|Falcarindiol 3-acetate|(2Z,8S,9Z)-2,9-Heptadecadiene-8-hydroxy-4,6-diyne-1-yl acetate|2-Hydroxyestradiol-3-methyl ether|4-Methoxy-17beta-estradiol|4-Methoxy-17alpha-estradiol|2-Methoxyestradiol|2-Methoxy-17alpha-estradiol|(8R,9S,13S,14S,17S)-13-Methyl-3-methylperoxy-6,7,8,9,11,12,14,15,16,17-decahydrocyclopenta[a]phenanthren-17-ol</t>
+  </si>
+  <si>
+    <t>HMDB0247266|HMDB0003959|HMDB0258073|HMDB0006771|HMDB0006774|HMDB0006773|HMDB0244360|HMDB0244364|HMDB0260174|HMDB0036696|HMDB0259168|HMDB0003955|HMDB0037831|HMDB0037830|HMDB0242733|HMDB0251855|HMDB0034167|HMDB0031038|HMDB0000380|HMDB0012782|HMDB0246490|HMDB0000405|HMDB0245198|HMDB0257882</t>
+  </si>
+  <si>
+    <t>19-Hydroxyandrost-4-ene-3,17-dione|tributyrylglycerol|11-Ketotestosterone|11b-Hydroxyandrost-4-ene-3,17-dione|(8R,9R,10S,11S,13R,14R)-11-Hydroxy-10,13-dimethyl-2,6,7,8,9,11,12,14,15,16-decahydro-1H-cyclopenta[a]phenanthrene-3,17-dione|(8S,9R,10R,13S,14S)-11-Hydroxy-10,13-dimethyl-5,6,7,8,9,11,12,14,15,16-decahydro-4H-cyclopenta[a]phenanthrene-3,17-dione|7-Keto-dehydroepiandrosterone|19-Oxotestosterone|7a-Hydroxyandrost-4-ene-3,17-dione|16a-Hydroxyandrost-4-ene-3,17-dione|(8R,9S,10R,13S,14S,17S)-17-Hydroxy-10,13-dimethyl-6,7,8,9,11,12,14,15,16,17-decahydro-1H-cyclopenta[a]phenanthrene-2,3-dione|Yucalexin B'11|xi-8-Hydroxyhexadecanedioic acid|xi-7-Hydroxyhexadecanedioic acid|4-Androsten-4-ol-3,17-dione|EPIMESTROL|Falcarindiol 3-acetate|(2Z,8S,9Z)-2,9-Heptadecadiene-8-hydroxy-4,6-diyne-1-yl acetate|2-Hydroxyestradiol-3-methyl ether|4-Methoxy-17beta-estradiol|4-Methoxy-17alpha-estradiol|2-Methoxyestradiol|2-Methoxy-17alpha-estradiol|(8R,9S,13S,14S,17S)-13-Methyl-3-methylperoxy-6,7,8,9,11,12,14,15,16,17-decahydrocyclopenta[a]phenanthren-17-ol</t>
+  </si>
+  <si>
+    <t>HMDB0003955|HMDB0259168|HMDB0244364|HMDB0006773|HMDB0244360|HMDB0258073|HMDB0247266|HMDB0003959|HMDB0006771|HMDB0006774|HMDB0260174|HMDB0036696|HMDB0037831|HMDB0037830|HMDB0242733|HMDB0251855|HMDB0034167|HMDB0031038|HMDB0000380|HMDB0012782|HMDB0246490|HMDB0000405|HMDB0245198|HMDB0257882</t>
+  </si>
+  <si>
+    <t>C18H36O4|C21H32O2</t>
+  </si>
+  <si>
+    <t>Dihydroxystearic acid|(3beta,5alpha)-3-Hydroxypregn-16-en-20-one|Pregnenolone|3-Hydroxypregn-5-en-20-one|3-Hydroxypregn-4-en-20-one|(9S,10S)-9,10-dihydroxyoctadecanoate|9,10-Dihydroxystearic acid|MG(15:0/0:0/0:0)|MG(0:0/15:0/0:0)|(+)-15,16-Dihydroxyoctadecanoic acid|MG(a-15:0/0:0/0:0)[rac]|MG(0:0/a-15:0/0:0)[rac]|MG(i-15:0/0:0/0:0)|MG(0:0/i-15:0/0:0)|Norbolethone|20alpha-Dihydroprogesterone|20-Hydroxypregn-4-en-3-one|hydroxypregn-4-en-3-one|Calusterone|Bolasterone|Ethyltestosterone</t>
+  </si>
+  <si>
+    <t>HMDB0302284|HMDB0034369|HMDB0000253|HMDB0244633|HMDB0245701|HMDB0059633|HMDB0302281|HMDB0011563|HMDB0011532|HMDB0031008|HMDB0072865|HMDB0072862|HMDB0072878|HMDB0072849|HMDB0006026|HMDB0003069|HMDB0245568|HMDB0253286|HMDB0004627|HMDB0006048|HMDB0006002</t>
+  </si>
+  <si>
+    <t>C21H36O2</t>
+  </si>
+  <si>
+    <t>7a,17-dimethyl-5b-Androstane-3a,17b-diol|3a,20b-Pregnanediol|5alpha-Pregnane-3alpha,20alpha-diol|5beta-Pregnane-3alpha,20alpha-diol|Pregnanediol|1-Hydroxy-2,12,15-heneicosatrien-4-one</t>
+  </si>
+  <si>
+    <t>HMDB0006013|HMDB0002156|HMDB0060409|HMDB0246874|HMDB0004025|HMDB0036741</t>
+  </si>
+  <si>
+    <t>C19H38O4</t>
+  </si>
+  <si>
+    <t>MG(16:0/0:0/0:0)|3-Palmitoyl-sn-glycerol|MG(0:0/16:0/0:0)|MG(i-16:0/0:0/0:0)|MG(0:0/i-16:0/0:0)</t>
+  </si>
+  <si>
+    <t>HMDB0011564|HMDB0245964|HMDB0011533|HMDB0072844|HMDB0072873</t>
+  </si>
+  <si>
+    <t>HMDB0245203|HMDB0001881|HMDB0006213|HMDB0256813</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -864,10 +1045,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O90"/>
+  <dimension ref="A1:O83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="H66" sqref="H66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -921,10 +1102,10 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>46.0418804528788</v>
+        <v>46.042616134763698</v>
       </c>
       <c r="B2">
-        <v>356.74200000000002</v>
+        <v>357.22399999997998</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
@@ -942,39 +1123,39 @@
         <v>18</v>
       </c>
       <c r="H2">
-        <v>9582.8774277635803</v>
+        <v>88861.0914150561</v>
       </c>
       <c r="I2">
-        <v>8966.9082217085706</v>
+        <v>74127.661242054703</v>
       </c>
       <c r="J2">
-        <v>7881.66018065551</v>
+        <v>77615.305085194006</v>
       </c>
       <c r="K2">
-        <v>10663.8413532964</v>
+        <v>75092.1155914134</v>
       </c>
       <c r="L2">
-        <v>10699.4075790767</v>
+        <v>73451.939979406307</v>
       </c>
       <c r="M2">
-        <v>10064.575791245499</v>
+        <v>77112.255943365104</v>
       </c>
       <c r="N2">
-        <v>0.13153452078602301</v>
+        <v>7.917595628653E-2</v>
       </c>
       <c r="O2">
-        <v>0.152569164181975</v>
+        <v>0.10737230902735501</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>46.042616134763698</v>
+        <v>60.058685940077801</v>
       </c>
       <c r="B3">
-        <v>357.22399999997998</v>
+        <v>404.15100000000001</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
         <v>16</v>
@@ -983,45 +1164,45 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H3">
-        <v>88861.0914150561</v>
+        <v>220873.24234307901</v>
       </c>
       <c r="I3">
-        <v>74127.661242054703</v>
+        <v>205003.07728567201</v>
       </c>
       <c r="J3">
-        <v>77615.305085194006</v>
+        <v>198544.168875709</v>
       </c>
       <c r="K3">
-        <v>75092.1155914134</v>
+        <v>199001.96834406999</v>
       </c>
       <c r="L3">
-        <v>73451.939979406307</v>
+        <v>183302.71492299199</v>
       </c>
       <c r="M3">
-        <v>77112.255943365104</v>
+        <v>186865.36475773601</v>
       </c>
       <c r="N3">
-        <v>7.917595628653E-2</v>
+        <v>8.5498862870189998E-2</v>
       </c>
       <c r="O3">
-        <v>0.10737230902735501</v>
+        <v>0.10132379744834499</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>46.069637321284297</v>
+        <v>74.074588921178204</v>
       </c>
       <c r="B4">
-        <v>341.733</v>
+        <v>445.19800000001999</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
         <v>16</v>
@@ -1030,45 +1211,45 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="H4">
-        <v>4297.0433147837803</v>
+        <v>111251.64170591799</v>
       </c>
       <c r="I4">
-        <v>4382.4594367348</v>
+        <v>99609.037846411695</v>
       </c>
       <c r="J4">
-        <v>4642.4468040561696</v>
+        <v>127830.408358552</v>
       </c>
       <c r="K4">
-        <v>4022.66829290137</v>
+        <v>102294.481895733</v>
       </c>
       <c r="L4">
-        <v>5534.7809863455204</v>
+        <v>119018.35542135801</v>
       </c>
       <c r="M4">
-        <v>3777.3989095183401</v>
+        <v>121033.40857965</v>
       </c>
       <c r="N4">
-        <v>0.15898551711909101</v>
+        <v>0.11727638710011699</v>
       </c>
       <c r="O4">
-        <v>0.19272014401181101</v>
+        <v>0.13447187066219099</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>60.058635836513098</v>
+        <v>76.053056098895695</v>
       </c>
       <c r="B5">
-        <v>390.17500000002002</v>
+        <v>232.83700000002</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>16</v>
@@ -1077,92 +1258,92 @@
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G5" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="H5">
-        <v>21133.937994370099</v>
+        <v>33030.733943625899</v>
       </c>
       <c r="I5">
-        <v>19581.132849231399</v>
+        <v>43960.658581743599</v>
       </c>
       <c r="J5">
-        <v>17215.116137519999</v>
+        <v>49036.918503532099</v>
       </c>
       <c r="K5">
-        <v>21584.448631596199</v>
+        <v>50029.666633905399</v>
       </c>
       <c r="L5">
-        <v>19658.4868072381</v>
+        <v>44426.463985747403</v>
       </c>
       <c r="M5">
-        <v>17324.942057157899</v>
+        <v>43019.0184327471</v>
       </c>
       <c r="N5">
-        <v>0.11991461388966999</v>
+        <v>0.14973501985308299</v>
       </c>
       <c r="O5">
-        <v>0.14180865636493301</v>
+        <v>0.183267241290197</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>60.058685940077801</v>
+        <v>76.054374111226096</v>
       </c>
       <c r="B6">
-        <v>404.15100000000001</v>
+        <v>556.36099999997998</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>16</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="G6" t="s">
-        <v>21</v>
+        <v>227</v>
       </c>
       <c r="H6">
-        <v>220873.24234307901</v>
+        <v>6539.1254722423801</v>
       </c>
       <c r="I6">
-        <v>205003.07728567201</v>
+        <v>4994.1013311394699</v>
       </c>
       <c r="J6">
-        <v>198544.168875709</v>
+        <v>5689.4079520974101</v>
       </c>
       <c r="K6">
-        <v>199001.96834406999</v>
+        <v>4086.63450046649</v>
       </c>
       <c r="L6">
-        <v>183302.71492299199</v>
+        <v>6861.3300563705798</v>
       </c>
       <c r="M6">
-        <v>186865.36475773601</v>
+        <v>7746.9930210935499</v>
       </c>
       <c r="N6">
-        <v>8.5498862870189998E-2</v>
+        <v>0.27021866968788399</v>
       </c>
       <c r="O6">
-        <v>0.10132379744834499</v>
+        <v>0.307965683663248</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>74.074314476951599</v>
+        <v>88.089705500452496</v>
       </c>
       <c r="B7">
-        <v>427.73800000002001</v>
+        <v>459.20400000000001</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
         <v>16</v>
@@ -1171,45 +1352,45 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G7" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H7">
-        <v>18788.354254374401</v>
+        <v>11885.675577743899</v>
       </c>
       <c r="I7">
-        <v>18924.297604810101</v>
+        <v>10713.3492469716</v>
       </c>
       <c r="J7">
-        <v>19642.823692747701</v>
+        <v>9807.3728452406503</v>
       </c>
       <c r="K7">
-        <v>23314.050999765601</v>
+        <v>12086.7425681611</v>
       </c>
       <c r="L7">
-        <v>24871.319547526899</v>
+        <v>12679.203477679401</v>
       </c>
       <c r="M7">
-        <v>20309.5519971127</v>
+        <v>9758.7509292165396</v>
       </c>
       <c r="N7">
-        <v>0.12880972192236301</v>
+        <v>0.13879949637741701</v>
       </c>
       <c r="O7">
-        <v>0.15275126591832699</v>
+        <v>0.163130134404111</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>74.074588921178204</v>
+        <v>88.090073219095601</v>
       </c>
       <c r="B8">
-        <v>445.19800000001999</v>
+        <v>481.73800000002001</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
         <v>16</v>
@@ -1218,45 +1399,45 @@
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="G8" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="H8">
-        <v>111251.64170591799</v>
+        <v>138139.31484152601</v>
       </c>
       <c r="I8">
-        <v>99609.037846411695</v>
+        <v>131404.383842184</v>
       </c>
       <c r="J8">
-        <v>127830.408358552</v>
+        <v>137735.268641337</v>
       </c>
       <c r="K8">
-        <v>102294.481895733</v>
+        <v>135030.965568213</v>
       </c>
       <c r="L8">
-        <v>119018.35542135801</v>
+        <v>129264.81703531199</v>
       </c>
       <c r="M8">
-        <v>121033.40857965</v>
+        <v>138980.332149478</v>
       </c>
       <c r="N8">
-        <v>0.11727638710011699</v>
+        <v>3.5549278379848899E-2</v>
       </c>
       <c r="O8">
-        <v>0.13447187066219099</v>
+        <v>4.1995368624182801E-2</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>76.053056098895695</v>
+        <v>88.090074543926505</v>
       </c>
       <c r="B9">
-        <v>232.83700000002</v>
+        <v>473.62300000002</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
         <v>16</v>
@@ -1265,139 +1446,139 @@
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="G9" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="H9">
-        <v>33030.733943625899</v>
+        <v>149793.99937237499</v>
       </c>
       <c r="I9">
-        <v>43960.658581743599</v>
+        <v>145420.43484999301</v>
       </c>
       <c r="J9">
-        <v>49036.918503532099</v>
+        <v>142866.09214416999</v>
       </c>
       <c r="K9">
-        <v>50029.666633905399</v>
+        <v>159814.56436580999</v>
       </c>
       <c r="L9">
-        <v>44426.463985747403</v>
+        <v>168408.50605484101</v>
       </c>
       <c r="M9">
-        <v>43019.0184327471</v>
+        <v>143467.57477230599</v>
       </c>
       <c r="N9">
-        <v>0.14973501985308299</v>
+        <v>7.6979111781146997E-2</v>
       </c>
       <c r="O9">
-        <v>0.183267241290197</v>
+        <v>9.2619521338225902E-2</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>76.054374111226096</v>
+        <v>88.092945253698105</v>
       </c>
       <c r="B10">
-        <v>556.36099999997998</v>
+        <v>468.25399999998001</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
         <v>16</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="G10" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H10">
-        <v>6539.1254722423801</v>
+        <v>68025.928796271401</v>
       </c>
       <c r="I10">
-        <v>4994.1013311394699</v>
+        <v>53458.122094705999</v>
       </c>
       <c r="J10">
-        <v>5689.4079520974101</v>
+        <v>66443.291893596601</v>
       </c>
       <c r="K10">
-        <v>4086.63450046649</v>
+        <v>64968.342082691299</v>
       </c>
       <c r="L10">
-        <v>6861.3300563705798</v>
+        <v>60542.866460395198</v>
       </c>
       <c r="M10">
-        <v>7746.9930210935499</v>
+        <v>63520.433312387097</v>
       </c>
       <c r="N10">
-        <v>0.27021866968788399</v>
+        <v>9.9659490884926594E-2</v>
       </c>
       <c r="O10">
-        <v>0.307965683663248</v>
+        <v>0.122722338072318</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>88.089705500452496</v>
+        <v>88.104055891164194</v>
       </c>
       <c r="B11">
-        <v>459.20400000000001</v>
+        <v>553.29</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D11" t="s">
         <v>16</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="G11" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="H11">
-        <v>11885.675577743899</v>
+        <v>12908.789972730599</v>
       </c>
       <c r="I11">
-        <v>10713.3492469716</v>
+        <v>16727.057356187299</v>
       </c>
       <c r="J11">
-        <v>9807.3728452406503</v>
+        <v>6702.1932154526703</v>
       </c>
       <c r="K11">
-        <v>12086.7425681611</v>
+        <v>6579.73791245349</v>
       </c>
       <c r="L11">
-        <v>12679.203477679401</v>
+        <v>7357.2238772254304</v>
       </c>
       <c r="M11">
-        <v>9758.7509292165396</v>
+        <v>7459.94258179595</v>
       </c>
       <c r="N11">
-        <v>0.13879949637741701</v>
+        <v>0.64010926160586501</v>
       </c>
       <c r="O11">
-        <v>0.163130134404111</v>
+        <v>0.84705443847326001</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>88.090073219095601</v>
+        <v>102.069237571936</v>
       </c>
       <c r="B12">
-        <v>481.73800000002001</v>
+        <v>345.21</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="D12" t="s">
         <v>16</v>
@@ -1406,45 +1587,45 @@
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G12" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="H12">
-        <v>138139.31484152601</v>
+        <v>182671.042809557</v>
       </c>
       <c r="I12">
-        <v>131404.383842184</v>
+        <v>167923.40414289199</v>
       </c>
       <c r="J12">
-        <v>137735.268641337</v>
+        <v>187290.036468801</v>
       </c>
       <c r="K12">
-        <v>135030.965568213</v>
+        <v>174642.17470384101</v>
       </c>
       <c r="L12">
-        <v>129264.81703531199</v>
+        <v>176382.62226765699</v>
       </c>
       <c r="M12">
-        <v>138980.332149478</v>
+        <v>174017.68954389199</v>
       </c>
       <c r="N12">
-        <v>3.5549278379848899E-2</v>
+        <v>4.7084816994360602E-2</v>
       </c>
       <c r="O12">
-        <v>4.1995368624182801E-2</v>
+        <v>5.48080335698116E-2</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>88.090074543926505</v>
+        <v>102.10568657115</v>
       </c>
       <c r="B13">
-        <v>473.62300000002</v>
+        <v>501.43099999997997</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D13" t="s">
         <v>16</v>
@@ -1453,45 +1634,45 @@
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="G13" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="H13">
-        <v>149793.99937237499</v>
+        <v>30286.851100780201</v>
       </c>
       <c r="I13">
-        <v>145420.43484999301</v>
+        <v>29302.118602376999</v>
       </c>
       <c r="J13">
-        <v>142866.09214416999</v>
+        <v>27574.2806022523</v>
       </c>
       <c r="K13">
-        <v>159814.56436580999</v>
+        <v>32496.738447429601</v>
       </c>
       <c r="L13">
-        <v>168408.50605484101</v>
+        <v>29515.357681488102</v>
       </c>
       <c r="M13">
-        <v>143467.57477230599</v>
+        <v>23249.999482369301</v>
       </c>
       <c r="N13">
-        <v>7.6979111781146997E-2</v>
+        <v>0.14191392671690001</v>
       </c>
       <c r="O13">
-        <v>9.2619521338225902E-2</v>
+        <v>0.181103300277459</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>88.092945253698105</v>
+        <v>102.105692587302</v>
       </c>
       <c r="B14">
-        <v>468.25399999998001</v>
+        <v>512.11999999998</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D14" t="s">
         <v>16</v>
@@ -1500,45 +1681,45 @@
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="G14" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="H14">
-        <v>68025.928796271401</v>
+        <v>141237.798150221</v>
       </c>
       <c r="I14">
-        <v>53458.122094705999</v>
+        <v>147310.45495289701</v>
       </c>
       <c r="J14">
-        <v>66443.291893596601</v>
+        <v>156887.145101481</v>
       </c>
       <c r="K14">
-        <v>64968.342082691299</v>
+        <v>163701.01056411999</v>
       </c>
       <c r="L14">
-        <v>60542.866460395198</v>
+        <v>177888.30163769401</v>
       </c>
       <c r="M14">
-        <v>63520.433312387097</v>
+        <v>156923.67891612701</v>
       </c>
       <c r="N14">
-        <v>9.9659490884926594E-2</v>
+        <v>9.2997272992694793E-2</v>
       </c>
       <c r="O14">
-        <v>0.122722338072318</v>
+        <v>0.106993859847685</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>88.104055891164194</v>
+        <v>102.106958402153</v>
       </c>
       <c r="B15">
-        <v>553.29</v>
+        <v>576.62099999999998</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="D15" t="s">
         <v>16</v>
@@ -1547,45 +1728,45 @@
         <v>2</v>
       </c>
       <c r="F15" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="G15" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="H15">
-        <v>12908.789972730599</v>
+        <v>4290.7429444149802</v>
       </c>
       <c r="I15">
-        <v>16727.057356187299</v>
+        <v>6260.7031862557296</v>
       </c>
       <c r="J15">
-        <v>6702.1932154526703</v>
+        <v>1333.8026516301099</v>
       </c>
       <c r="K15">
-        <v>6579.73791245349</v>
+        <v>5677.0621337031098</v>
       </c>
       <c r="L15">
-        <v>7357.2238772254304</v>
+        <v>6666.72381989927</v>
       </c>
       <c r="M15">
-        <v>7459.94258179595</v>
+        <v>4640.4020339878098</v>
       </c>
       <c r="N15">
-        <v>0.64010926160586501</v>
+        <v>0.70002317479929299</v>
       </c>
       <c r="O15">
-        <v>0.84705443847326001</v>
+        <v>1.1827250494972601</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>102.069237571936</v>
+        <v>102.109131801457</v>
       </c>
       <c r="B16">
-        <v>345.21</v>
+        <v>508.18699999998</v>
       </c>
       <c r="C16" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D16" t="s">
         <v>16</v>
@@ -1594,45 +1775,45 @@
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="G16" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="H16">
-        <v>182671.042809557</v>
+        <v>1667446.98882751</v>
       </c>
       <c r="I16">
-        <v>167923.40414289199</v>
+        <v>1291125.7581857</v>
       </c>
       <c r="J16">
-        <v>187290.036468801</v>
+        <v>1580330.5601113201</v>
       </c>
       <c r="K16">
-        <v>174642.17470384101</v>
+        <v>1478724.4558228501</v>
       </c>
       <c r="L16">
-        <v>176382.62226765699</v>
+        <v>1398756.1726114899</v>
       </c>
       <c r="M16">
-        <v>174017.68954389199</v>
+        <v>1746159.51173604</v>
       </c>
       <c r="N16">
-        <v>4.7084816994360602E-2</v>
+        <v>0.13743772003193999</v>
       </c>
       <c r="O16">
-        <v>5.48080335698116E-2</v>
+        <v>0.15567574732853201</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>102.10568657115</v>
+        <v>102.109350635901</v>
       </c>
       <c r="B17">
-        <v>501.43099999997997</v>
+        <v>494.97799999998</v>
       </c>
       <c r="C17" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="D17" t="s">
         <v>16</v>
@@ -1641,45 +1822,45 @@
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>126</v>
+        <v>53</v>
       </c>
       <c r="G17" t="s">
-        <v>127</v>
+        <v>54</v>
       </c>
       <c r="H17">
-        <v>30286.851100780201</v>
+        <v>10226.278624254801</v>
       </c>
       <c r="I17">
-        <v>29302.118602376999</v>
+        <v>8321.3775761520901</v>
       </c>
       <c r="J17">
-        <v>27574.2806022523</v>
+        <v>9383.8111134849496</v>
       </c>
       <c r="K17">
-        <v>32496.738447429601</v>
+        <v>10853.238082817599</v>
       </c>
       <c r="L17">
-        <v>29515.357681488102</v>
+        <v>10443.841165710401</v>
       </c>
       <c r="M17">
-        <v>23249.999482369301</v>
+        <v>9599.3804142640201</v>
       </c>
       <c r="N17">
-        <v>0.14191392671690001</v>
+        <v>0.110839729687746</v>
       </c>
       <c r="O17">
-        <v>0.181103300277459</v>
+        <v>0.12916060345366701</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>102.105692587302</v>
+        <v>104.084489073423</v>
       </c>
       <c r="B18">
-        <v>512.11999999998</v>
+        <v>290.48299999998</v>
       </c>
       <c r="C18" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="D18" t="s">
         <v>16</v>
@@ -1688,45 +1869,45 @@
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="G18" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="H18">
-        <v>141237.798150221</v>
+        <v>364996.44102508202</v>
       </c>
       <c r="I18">
-        <v>147310.45495289701</v>
+        <v>302489.17517056101</v>
       </c>
       <c r="J18">
-        <v>156887.145101481</v>
+        <v>330992.91389076802</v>
       </c>
       <c r="K18">
-        <v>163701.01056411999</v>
+        <v>322470.66837871697</v>
       </c>
       <c r="L18">
-        <v>177888.30163769401</v>
+        <v>300564.33688930603</v>
       </c>
       <c r="M18">
-        <v>156923.67891612701</v>
+        <v>319535.564953689</v>
       </c>
       <c r="N18">
-        <v>9.2997272992694793E-2</v>
+        <v>8.7379075094446298E-2</v>
       </c>
       <c r="O18">
-        <v>0.106993859847685</v>
+        <v>0.107125825434199</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>102.106958402153</v>
+        <v>104.086453380199</v>
       </c>
       <c r="B19">
-        <v>576.62099999999998</v>
+        <v>585.95699999999999</v>
       </c>
       <c r="C19" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="D19" t="s">
         <v>16</v>
@@ -1735,45 +1916,45 @@
         <v>2</v>
       </c>
       <c r="F19" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="G19" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="H19">
-        <v>4290.7429444149802</v>
+        <v>66484.880274559997</v>
       </c>
       <c r="I19">
-        <v>6260.7031862557296</v>
+        <v>52912.672206679599</v>
       </c>
       <c r="J19">
-        <v>1333.8026516301099</v>
+        <v>59326.687196946797</v>
       </c>
       <c r="K19">
-        <v>5677.0621337031098</v>
+        <v>59088.046051872698</v>
       </c>
       <c r="L19">
-        <v>6666.72381989927</v>
+        <v>71394.580569018595</v>
       </c>
       <c r="M19">
-        <v>4640.4020339878098</v>
+        <v>60063.511407586899</v>
       </c>
       <c r="N19">
-        <v>0.70002317479929299</v>
+        <v>0.122078182764886</v>
       </c>
       <c r="O19">
-        <v>1.1827250494972601</v>
+        <v>0.143824869933111</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>102.109131801457</v>
+        <v>114.10608329156101</v>
       </c>
       <c r="B20">
-        <v>508.18699999998</v>
+        <v>503.05600000001999</v>
       </c>
       <c r="C20" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D20" t="s">
         <v>16</v>
@@ -1782,45 +1963,45 @@
         <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>163</v>
+        <v>62</v>
       </c>
       <c r="G20" t="s">
-        <v>164</v>
+        <v>63</v>
       </c>
       <c r="H20">
-        <v>1667446.98882751</v>
+        <v>48672.087663152903</v>
       </c>
       <c r="I20">
-        <v>1291125.7581857</v>
+        <v>45717.466109799898</v>
       </c>
       <c r="J20">
-        <v>1580330.5601113201</v>
+        <v>40673.198001822697</v>
       </c>
       <c r="K20">
-        <v>1478724.4558228501</v>
+        <v>41285.770554263603</v>
       </c>
       <c r="L20">
-        <v>1398756.1726114899</v>
+        <v>39556.736219512</v>
       </c>
       <c r="M20">
-        <v>1746159.51173604</v>
+        <v>42304.218126124797</v>
       </c>
       <c r="N20">
-        <v>0.13743772003193999</v>
+        <v>0.100219735489158</v>
       </c>
       <c r="O20">
-        <v>0.15567574732853201</v>
+        <v>0.120416079179685</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>102.109350635901</v>
+        <v>116.085125202542</v>
       </c>
       <c r="B21">
-        <v>494.97799999998</v>
+        <v>308.39400000000001</v>
       </c>
       <c r="C21" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D21" t="s">
         <v>16</v>
@@ -1829,139 +2010,139 @@
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>126</v>
+        <v>65</v>
       </c>
       <c r="G21" t="s">
-        <v>127</v>
+        <v>66</v>
       </c>
       <c r="H21">
-        <v>10226.278624254801</v>
+        <v>17922.275088666</v>
       </c>
       <c r="I21">
-        <v>8321.3775761520901</v>
+        <v>19588.375294931298</v>
       </c>
       <c r="J21">
-        <v>9383.8111134849496</v>
+        <v>18963.0361504018</v>
       </c>
       <c r="K21">
-        <v>10853.238082817599</v>
+        <v>22004.912360095499</v>
       </c>
       <c r="L21">
-        <v>10443.841165710401</v>
+        <v>22717.9350166154</v>
       </c>
       <c r="M21">
-        <v>9599.3804142640201</v>
+        <v>16079.5666900002</v>
       </c>
       <c r="N21">
-        <v>0.110839729687746</v>
+        <v>0.16303413297414601</v>
       </c>
       <c r="O21">
-        <v>0.12916060345366701</v>
+        <v>0.19457832947068501</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>104.084489073423</v>
+        <v>116.121153344072</v>
       </c>
       <c r="B22">
-        <v>290.48299999998</v>
+        <v>594.73199999999997</v>
       </c>
       <c r="C22" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="D22" t="s">
         <v>16</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="G22" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="H22">
-        <v>364996.44102508202</v>
+        <v>5137.1007355593802</v>
       </c>
       <c r="I22">
-        <v>302489.17517056101</v>
+        <v>6457.7781698036197</v>
       </c>
       <c r="J22">
-        <v>330992.91389076802</v>
+        <v>2800.5845524773199</v>
       </c>
       <c r="K22">
-        <v>322470.66837871697</v>
+        <v>3655.2621106786801</v>
       </c>
       <c r="L22">
-        <v>300564.33688930603</v>
+        <v>6843.7133869606696</v>
       </c>
       <c r="M22">
-        <v>319535.564953689</v>
+        <v>5232.9982720751505</v>
       </c>
       <c r="N22">
-        <v>8.7379075094446298E-2</v>
+        <v>0.42930212139745</v>
       </c>
       <c r="O22">
-        <v>0.107125825434199</v>
+        <v>0.53779089486043097</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>104.086453380199</v>
+        <v>116.121157166991</v>
       </c>
       <c r="B23">
-        <v>585.95699999999999</v>
+        <v>531.15899999999999</v>
       </c>
       <c r="C23" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="D23" t="s">
         <v>16</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="G23" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="H23">
-        <v>66484.880274559997</v>
+        <v>50663.569065916599</v>
       </c>
       <c r="I23">
-        <v>52912.672206679599</v>
+        <v>50399.410880846903</v>
       </c>
       <c r="J23">
-        <v>59326.687196946797</v>
+        <v>56992.901899353303</v>
       </c>
       <c r="K23">
-        <v>59088.046051872698</v>
+        <v>57853.223738963599</v>
       </c>
       <c r="L23">
-        <v>71394.580569018595</v>
+        <v>61689.645513774798</v>
       </c>
       <c r="M23">
-        <v>60063.511407586899</v>
+        <v>65385.975108128703</v>
       </c>
       <c r="N23">
-        <v>0.122078182764886</v>
+        <v>0.116967092697108</v>
       </c>
       <c r="O23">
-        <v>0.143824869933111</v>
+        <v>0.133987690910332</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>114.10608329156101</v>
+        <v>116.12480548236501</v>
       </c>
       <c r="B24">
-        <v>503.05600000001999</v>
+        <v>542.22</v>
       </c>
       <c r="C24" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="D24" t="s">
         <v>16</v>
@@ -1970,45 +2151,45 @@
         <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="G24" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="H24">
-        <v>48672.087663152903</v>
+        <v>528986.53825975</v>
       </c>
       <c r="I24">
-        <v>45717.466109799898</v>
+        <v>416580.29726448999</v>
       </c>
       <c r="J24">
-        <v>40673.198001822697</v>
+        <v>504667.42889277003</v>
       </c>
       <c r="K24">
-        <v>41285.770554263603</v>
+        <v>482026.846767988</v>
       </c>
       <c r="L24">
-        <v>39556.736219512</v>
+        <v>449084.44540308398</v>
       </c>
       <c r="M24">
-        <v>42304.218126124797</v>
+        <v>523528.46217805101</v>
       </c>
       <c r="N24">
-        <v>0.100219735489158</v>
+        <v>0.112823937303445</v>
       </c>
       <c r="O24">
-        <v>0.120416079179685</v>
+        <v>0.13240480875938901</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>116.085125202542</v>
+        <v>116.125470056864</v>
       </c>
       <c r="B25">
-        <v>308.39400000000001</v>
+        <v>525.53099999999995</v>
       </c>
       <c r="C25" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="D25" t="s">
         <v>16</v>
@@ -2017,136 +2198,136 @@
         <v>1</v>
       </c>
       <c r="F25" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G25" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="H25">
-        <v>17922.275088666</v>
+        <v>12662.301665675501</v>
       </c>
       <c r="I25">
-        <v>19588.375294931298</v>
+        <v>10422.790300233701</v>
       </c>
       <c r="J25">
-        <v>18963.0361504018</v>
+        <v>12256.174928643</v>
       </c>
       <c r="K25">
-        <v>22004.912360095499</v>
+        <v>13174.059812355499</v>
       </c>
       <c r="L25">
-        <v>22717.9350166154</v>
+        <v>13346.1821806104</v>
       </c>
       <c r="M25">
-        <v>16079.5666900002</v>
+        <v>13335.158267070599</v>
       </c>
       <c r="N25">
-        <v>0.16303413297414601</v>
+        <v>9.6165338238066694E-2</v>
       </c>
       <c r="O25">
-        <v>0.19457832947068501</v>
+        <v>0.124899783047035</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>116.121153344072</v>
+        <v>118.101125305859</v>
       </c>
       <c r="B26">
-        <v>594.73199999999997</v>
+        <v>328.68900000000002</v>
       </c>
       <c r="C26" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D26" t="s">
         <v>16</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F26" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G26" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="H26">
-        <v>5137.1007355593802</v>
+        <v>256784.579842195</v>
       </c>
       <c r="I26">
-        <v>6457.7781698036197</v>
+        <v>259696.820688181</v>
       </c>
       <c r="J26">
-        <v>2800.5845524773199</v>
+        <v>274998.33014640602</v>
       </c>
       <c r="K26">
-        <v>3655.2621106786801</v>
+        <v>277046.09727824299</v>
       </c>
       <c r="L26">
-        <v>6843.7133869606696</v>
+        <v>298485.11588267499</v>
       </c>
       <c r="M26">
-        <v>5232.9982720751505</v>
+        <v>261816.80368122301</v>
       </c>
       <c r="N26">
-        <v>0.42930212139745</v>
+        <v>6.4819454420565303E-2</v>
       </c>
       <c r="O26">
-        <v>0.53779089486043097</v>
+        <v>7.7742006161053104E-2</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>116.121157166991</v>
+        <v>118.102424595607</v>
       </c>
       <c r="B27">
-        <v>531.15899999999999</v>
+        <v>602.20799999999997</v>
       </c>
       <c r="C27" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D27" t="s">
         <v>16</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F27" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G27" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H27">
-        <v>50663.569065916599</v>
+        <v>45597.543671088897</v>
       </c>
       <c r="I27">
-        <v>50399.410880846903</v>
+        <v>30621.756100706301</v>
       </c>
       <c r="J27">
-        <v>56992.901899353303</v>
+        <v>45529.190643298498</v>
       </c>
       <c r="K27">
-        <v>57853.223738963599</v>
+        <v>50019.124597015303</v>
       </c>
       <c r="L27">
-        <v>61689.645513774798</v>
+        <v>52183.328584709197</v>
       </c>
       <c r="M27">
-        <v>65385.975108128703</v>
+        <v>32592.613354100999</v>
       </c>
       <c r="N27">
-        <v>0.116967092697108</v>
+        <v>0.27229890089408898</v>
       </c>
       <c r="O27">
-        <v>0.133987690910332</v>
+        <v>0.33514837972675998</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>116.12480548236501</v>
+        <v>122.07463036582099</v>
       </c>
       <c r="B28">
-        <v>542.22</v>
+        <v>464.55499999998</v>
       </c>
       <c r="C28" t="s">
         <v>79</v>
@@ -2164,39 +2345,39 @@
         <v>81</v>
       </c>
       <c r="H28">
-        <v>528986.53825975</v>
+        <v>140187.475182336</v>
       </c>
       <c r="I28">
-        <v>416580.29726448999</v>
+        <v>143198.163001899</v>
       </c>
       <c r="J28">
-        <v>504667.42889277003</v>
+        <v>162828.91785136599</v>
       </c>
       <c r="K28">
-        <v>482026.846767988</v>
+        <v>151399.515754419</v>
       </c>
       <c r="L28">
-        <v>449084.44540308398</v>
+        <v>156616.61360099301</v>
       </c>
       <c r="M28">
-        <v>523528.46217805101</v>
+        <v>130640.032920602</v>
       </c>
       <c r="N28">
-        <v>0.112823937303445</v>
+        <v>0.101417228166059</v>
       </c>
       <c r="O28">
-        <v>0.13240480875938901</v>
+        <v>0.11819122854524</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>116.125470056864</v>
+        <v>128.031285958008</v>
       </c>
       <c r="B29">
-        <v>525.53099999999995</v>
+        <v>448.90699999997997</v>
       </c>
       <c r="C29" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D29" t="s">
         <v>16</v>
@@ -2205,45 +2386,45 @@
         <v>1</v>
       </c>
       <c r="F29" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G29" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H29">
-        <v>12662.301665675501</v>
+        <v>316802.85946559801</v>
       </c>
       <c r="I29">
-        <v>10422.790300233701</v>
+        <v>332186.267127103</v>
       </c>
       <c r="J29">
-        <v>12256.174928643</v>
+        <v>332923.83763817901</v>
       </c>
       <c r="K29">
-        <v>13174.059812355499</v>
+        <v>360946.64649444201</v>
       </c>
       <c r="L29">
-        <v>13346.1821806104</v>
+        <v>375617.80995782802</v>
       </c>
       <c r="M29">
-        <v>13335.158267070599</v>
+        <v>368177.78751403</v>
       </c>
       <c r="N29">
-        <v>9.6165338238066694E-2</v>
+        <v>7.8292703723374504E-2</v>
       </c>
       <c r="O29">
-        <v>0.124899783047035</v>
+        <v>9.0609125006819002E-2</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>118.101125305859</v>
+        <v>128.12451872472701</v>
       </c>
       <c r="B30">
-        <v>328.68900000000002</v>
+        <v>528.88000000002</v>
       </c>
       <c r="C30" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D30" t="s">
         <v>16</v>
@@ -2252,89 +2433,89 @@
         <v>1</v>
       </c>
       <c r="F30" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G30" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H30">
-        <v>256784.579842195</v>
+        <v>41553.547069139597</v>
       </c>
       <c r="I30">
-        <v>259696.820688181</v>
+        <v>43209.336082278198</v>
       </c>
       <c r="J30">
-        <v>274998.33014640602</v>
+        <v>36209.316247855997</v>
       </c>
       <c r="K30">
-        <v>277046.09727824299</v>
+        <v>38222.717646757003</v>
       </c>
       <c r="L30">
-        <v>298485.11588267499</v>
+        <v>35170.166278747703</v>
       </c>
       <c r="M30">
-        <v>261816.80368122301</v>
+        <v>37992.8526689871</v>
       </c>
       <c r="N30">
-        <v>6.4819454420565303E-2</v>
+        <v>0.102282975519269</v>
       </c>
       <c r="O30">
-        <v>7.7742006161053104E-2</v>
+        <v>0.12027915323050201</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>118.102424595607</v>
+        <v>130.136809695626</v>
       </c>
       <c r="B31">
-        <v>602.20799999999997</v>
+        <v>552.52300000002003</v>
       </c>
       <c r="C31" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D31" t="s">
         <v>16</v>
       </c>
       <c r="E31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F31" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G31" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H31">
-        <v>45597.543671088897</v>
+        <v>23627.502316559301</v>
       </c>
       <c r="I31">
-        <v>30621.756100706301</v>
+        <v>19830.738843650299</v>
       </c>
       <c r="J31">
-        <v>45529.190643298498</v>
+        <v>23886.9293491473</v>
       </c>
       <c r="K31">
-        <v>50019.124597015303</v>
+        <v>20418.146527204</v>
       </c>
       <c r="L31">
-        <v>52183.328584709197</v>
+        <v>23025.089068462901</v>
       </c>
       <c r="M31">
-        <v>32592.613354100999</v>
+        <v>24812.618502266101</v>
       </c>
       <c r="N31">
-        <v>0.27229890089408898</v>
+        <v>0.105234085520758</v>
       </c>
       <c r="O31">
-        <v>0.33514837972675998</v>
+        <v>0.12508622387549001</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>122.07463036582099</v>
+        <v>130.13749451165</v>
       </c>
       <c r="B32">
-        <v>464.55499999998</v>
+        <v>612.91200000000003</v>
       </c>
       <c r="C32" t="s">
         <v>88</v>
@@ -2343,45 +2524,45 @@
         <v>16</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G32" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H32">
-        <v>140187.475182336</v>
+        <v>4906.0290541855402</v>
       </c>
       <c r="I32">
-        <v>143198.163001899</v>
-      </c>
-      <c r="J32">
-        <v>162828.91785136599</v>
+        <v>6409.0529457048096</v>
       </c>
       <c r="K32">
-        <v>151399.515754419</v>
+        <v>5369.3761824888998</v>
       </c>
       <c r="L32">
-        <v>156616.61360099301</v>
+        <v>5163.3817232568399</v>
       </c>
       <c r="M32">
-        <v>130640.032920602</v>
+        <v>4990.7689292241303</v>
       </c>
       <c r="N32">
-        <v>0.101417228166059</v>
+        <v>0.12570378822039799</v>
       </c>
       <c r="O32">
-        <v>0.11819122854524</v>
+        <v>0.15818146609373501</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>124.090128894705</v>
+        <v>130.13754838237</v>
       </c>
       <c r="B33">
-        <v>498.58999999998002</v>
+        <v>565.92199999998002</v>
+      </c>
+      <c r="C33" t="s">
+        <v>88</v>
       </c>
       <c r="D33" t="s">
         <v>16</v>
@@ -2389,40 +2570,46 @@
       <c r="E33">
         <v>1</v>
       </c>
+      <c r="F33" t="s">
+        <v>93</v>
+      </c>
+      <c r="G33" t="s">
+        <v>94</v>
+      </c>
       <c r="H33">
-        <v>312407.15882085997</v>
+        <v>216158.77352661101</v>
       </c>
       <c r="I33">
-        <v>323838.105431573</v>
+        <v>216120.61412285399</v>
       </c>
       <c r="J33">
-        <v>337597.23934928002</v>
+        <v>222320.15142879001</v>
       </c>
       <c r="K33">
-        <v>344646.58898006403</v>
+        <v>236360.80618111001</v>
       </c>
       <c r="L33">
-        <v>375575.92982858099</v>
+        <v>247640.84144254401</v>
       </c>
       <c r="M33">
-        <v>337502.83178728499</v>
+        <v>217221.15688556901</v>
       </c>
       <c r="N33">
-        <v>7.0904238518417595E-2</v>
+        <v>6.3338233707757E-2</v>
       </c>
       <c r="O33">
-        <v>8.4025021295161803E-2</v>
+        <v>7.8561994790246698E-2</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>128.031285958008</v>
+        <v>132.11720454239</v>
       </c>
       <c r="B34">
-        <v>448.90699999997997</v>
+        <v>366.06299999999999</v>
       </c>
       <c r="C34" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D34" t="s">
         <v>16</v>
@@ -2431,92 +2618,92 @@
         <v>1</v>
       </c>
       <c r="F34" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="G34" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="H34">
-        <v>316802.85946559801</v>
+        <v>287069.46043395402</v>
       </c>
       <c r="I34">
-        <v>332186.267127103</v>
+        <v>300009.72955247399</v>
       </c>
       <c r="J34">
-        <v>332923.83763817901</v>
+        <v>317208.49077141401</v>
       </c>
       <c r="K34">
-        <v>360946.64649444201</v>
+        <v>320348.93277034</v>
       </c>
       <c r="L34">
-        <v>375617.80995782802</v>
+        <v>336693.97309812199</v>
       </c>
       <c r="M34">
-        <v>368177.78751403</v>
+        <v>288116.77573659498</v>
       </c>
       <c r="N34">
-        <v>7.8292703723374504E-2</v>
+        <v>7.72442907430992E-2</v>
       </c>
       <c r="O34">
-        <v>9.0609125006819002E-2</v>
+        <v>8.9778102132365201E-2</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>128.12451872472701</v>
+        <v>132.117957607059</v>
       </c>
       <c r="B35">
-        <v>528.88000000002</v>
+        <v>615.85399999998003</v>
       </c>
       <c r="C35" t="s">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="D35" t="s">
         <v>16</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35" t="s">
-        <v>49</v>
+        <v>96</v>
       </c>
       <c r="G35" t="s">
-        <v>50</v>
+        <v>97</v>
       </c>
       <c r="H35">
-        <v>41553.547069139597</v>
+        <v>46658.798488348402</v>
       </c>
       <c r="I35">
-        <v>43209.336082278198</v>
+        <v>32025.212668443801</v>
       </c>
       <c r="J35">
-        <v>36209.316247855997</v>
+        <v>48205.398690067101</v>
       </c>
       <c r="K35">
-        <v>38222.717646757003</v>
+        <v>52392.534165231802</v>
       </c>
       <c r="L35">
-        <v>35170.166278747703</v>
+        <v>54608.858577397201</v>
       </c>
       <c r="M35">
-        <v>37992.8526689871</v>
+        <v>32206.418818881899</v>
       </c>
       <c r="N35">
-        <v>0.102282975519269</v>
+        <v>0.29288336789487401</v>
       </c>
       <c r="O35">
-        <v>0.12027915323050201</v>
+        <v>0.36737376517709103</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>130.136809695626</v>
+        <v>134.09582809979099</v>
       </c>
       <c r="B36">
-        <v>552.52300000002003</v>
+        <v>360.24499999998</v>
       </c>
       <c r="C36" t="s">
-        <v>51</v>
+        <v>98</v>
       </c>
       <c r="D36" t="s">
         <v>16</v>
@@ -2525,89 +2712,92 @@
         <v>1</v>
       </c>
       <c r="F36" t="s">
-        <v>52</v>
+        <v>99</v>
       </c>
       <c r="G36" t="s">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="H36">
-        <v>23627.502316559301</v>
+        <v>471854.73574268201</v>
       </c>
       <c r="I36">
-        <v>19830.738843650299</v>
+        <v>411098.35748139699</v>
       </c>
       <c r="J36">
-        <v>23886.9293491473</v>
+        <v>422039.58259785897</v>
       </c>
       <c r="K36">
-        <v>20418.146527204</v>
+        <v>435002.32004168199</v>
       </c>
       <c r="L36">
-        <v>23025.089068462901</v>
+        <v>403154.17114972498</v>
       </c>
       <c r="M36">
-        <v>24812.618502266101</v>
+        <v>396213.95687000599</v>
       </c>
       <c r="N36">
-        <v>0.105234085520758</v>
+        <v>7.9082823291451596E-2</v>
       </c>
       <c r="O36">
-        <v>0.12508622387549001</v>
+        <v>9.5704312016262005E-2</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>130.13749451165</v>
+        <v>136.08991680392299</v>
       </c>
       <c r="B37">
-        <v>612.91200000000003</v>
+        <v>503.09200000001999</v>
       </c>
       <c r="C37" t="s">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="D37" t="s">
         <v>16</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F37" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="G37" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="H37">
-        <v>4906.0290541855402</v>
+        <v>142740.70960055399</v>
       </c>
       <c r="I37">
-        <v>6409.0529457048096</v>
+        <v>147826.31236275801</v>
+      </c>
+      <c r="J37">
+        <v>145319.418815249</v>
       </c>
       <c r="K37">
-        <v>5369.3761824888998</v>
+        <v>158546.04883104801</v>
       </c>
       <c r="L37">
-        <v>5163.3817232568399</v>
+        <v>163641.55437271099</v>
       </c>
       <c r="M37">
-        <v>4990.7689292241303</v>
+        <v>143122.386527341</v>
       </c>
       <c r="N37">
-        <v>0.12570378822039799</v>
+        <v>6.5974325412315599E-2</v>
       </c>
       <c r="O37">
-        <v>0.15818146609373501</v>
+        <v>7.9964679563139907E-2</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>130.13754838237</v>
+        <v>138.06979896751</v>
       </c>
       <c r="B38">
-        <v>565.92199999998002</v>
+        <v>460.83600000000001</v>
       </c>
       <c r="C38" t="s">
-        <v>51</v>
+        <v>104</v>
       </c>
       <c r="D38" t="s">
         <v>16</v>
@@ -2616,45 +2806,45 @@
         <v>1</v>
       </c>
       <c r="F38" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="G38" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="H38">
-        <v>216158.77352661101</v>
+        <v>215185.65245261299</v>
       </c>
       <c r="I38">
-        <v>216120.61412285399</v>
+        <v>224512.11027345399</v>
       </c>
       <c r="J38">
-        <v>222320.15142879001</v>
+        <v>229775.32057613801</v>
       </c>
       <c r="K38">
-        <v>236360.80618111001</v>
+        <v>249338.629349433</v>
       </c>
       <c r="L38">
-        <v>247640.84144254401</v>
+        <v>256460.72655377901</v>
       </c>
       <c r="M38">
-        <v>217221.15688556901</v>
+        <v>202104.539863418</v>
       </c>
       <c r="N38">
-        <v>6.3338233707757E-2</v>
+        <v>0.111697148938182</v>
       </c>
       <c r="O38">
-        <v>7.8561994790246698E-2</v>
+        <v>0.13071996835833399</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>132.11720454239</v>
+        <v>142.137272136642</v>
       </c>
       <c r="B39">
-        <v>366.06299999999999</v>
+        <v>565.28899999997998</v>
       </c>
       <c r="C39" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="D39" t="s">
         <v>16</v>
@@ -2663,92 +2853,92 @@
         <v>1</v>
       </c>
       <c r="F39" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="G39" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="H39">
-        <v>287069.46043395402</v>
+        <v>206151.46911303099</v>
       </c>
       <c r="I39">
-        <v>300009.72955247399</v>
+        <v>199517.149563983</v>
       </c>
       <c r="J39">
-        <v>317208.49077141401</v>
+        <v>196940.734703447</v>
       </c>
       <c r="K39">
-        <v>320348.93277034</v>
+        <v>204883.83235218699</v>
       </c>
       <c r="L39">
-        <v>336693.97309812199</v>
+        <v>211652.06385343499</v>
       </c>
       <c r="M39">
-        <v>288116.77573659498</v>
+        <v>203505.00564365901</v>
       </c>
       <c r="N39">
-        <v>7.72442907430992E-2</v>
+        <v>3.0715105947544001E-2</v>
       </c>
       <c r="O39">
-        <v>8.9778102132365201E-2</v>
+        <v>3.5355563799449798E-2</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>132.117957607059</v>
+        <v>142.137602046306</v>
       </c>
       <c r="B40">
-        <v>615.85399999998003</v>
+        <v>555.40000000001999</v>
       </c>
       <c r="C40" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="D40" t="s">
         <v>16</v>
       </c>
       <c r="E40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F40" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="G40" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="H40">
-        <v>46658.798488348402</v>
+        <v>97389.451947844704</v>
       </c>
       <c r="I40">
-        <v>32025.212668443801</v>
+        <v>101377.995580319</v>
       </c>
       <c r="J40">
-        <v>48205.398690067101</v>
+        <v>97357.045688586295</v>
       </c>
       <c r="K40">
-        <v>52392.534165231802</v>
+        <v>106899.042615104</v>
       </c>
       <c r="L40">
-        <v>54608.858577397201</v>
+        <v>111346.79033843199</v>
       </c>
       <c r="M40">
-        <v>32206.418818881899</v>
+        <v>104875.113687908</v>
       </c>
       <c r="N40">
-        <v>0.29288336789487401</v>
+        <v>6.32483839580225E-2</v>
       </c>
       <c r="O40">
-        <v>0.36737376517709103</v>
+        <v>7.2313118739426793E-2</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>134.09582809979099</v>
+        <v>143.04181817953301</v>
       </c>
       <c r="B41">
-        <v>360.24499999998</v>
+        <v>331.41700000001998</v>
       </c>
       <c r="C41" t="s">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="D41" t="s">
         <v>16</v>
@@ -2757,45 +2947,45 @@
         <v>1</v>
       </c>
       <c r="F41" t="s">
-        <v>55</v>
+        <v>113</v>
       </c>
       <c r="G41" t="s">
-        <v>56</v>
+        <v>114</v>
       </c>
       <c r="H41">
-        <v>471854.73574268201</v>
+        <v>89869.056810649796</v>
       </c>
       <c r="I41">
-        <v>411098.35748139699</v>
+        <v>81034.019344302695</v>
       </c>
       <c r="J41">
-        <v>422039.58259785897</v>
+        <v>80562.972146642103</v>
       </c>
       <c r="K41">
-        <v>435002.32004168199</v>
+        <v>84448.066763798401</v>
       </c>
       <c r="L41">
-        <v>403154.17114972498</v>
+        <v>88608.618897483495</v>
       </c>
       <c r="M41">
-        <v>396213.95687000599</v>
+        <v>92501.496589563205</v>
       </c>
       <c r="N41">
-        <v>7.9082823291451596E-2</v>
+        <v>6.8607831638096403E-2</v>
       </c>
       <c r="O41">
-        <v>9.5704312016262005E-2</v>
+        <v>7.8859570340214999E-2</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>136.08991680392299</v>
+        <v>144.151842364153</v>
       </c>
       <c r="B42">
-        <v>503.09200000001999</v>
+        <v>615.43200000000002</v>
       </c>
       <c r="C42" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="D42" t="s">
         <v>16</v>
@@ -2804,45 +2994,45 @@
         <v>1</v>
       </c>
       <c r="F42" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="G42" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="H42">
-        <v>142740.70960055399</v>
+        <v>26299.003031305801</v>
       </c>
       <c r="I42">
-        <v>147826.31236275801</v>
+        <v>434116.921879331</v>
       </c>
       <c r="J42">
-        <v>145319.418815249</v>
+        <v>524435.22932821</v>
       </c>
       <c r="K42">
-        <v>158546.04883104801</v>
+        <v>499851.43002200901</v>
       </c>
       <c r="L42">
-        <v>163641.55437271099</v>
+        <v>473534.52807037003</v>
       </c>
       <c r="M42">
-        <v>143122.386527341</v>
+        <v>284325.14699776203</v>
       </c>
       <c r="N42">
-        <v>6.5974325412315599E-2</v>
+        <v>0.53884417204978596</v>
       </c>
       <c r="O42">
-        <v>7.9964679563139907E-2</v>
+        <v>0.65711284154445204</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>138.06979896751</v>
+        <v>144.15290821103099</v>
       </c>
       <c r="B43">
-        <v>460.83600000000001</v>
+        <v>581.96699999999998</v>
       </c>
       <c r="C43" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="D43" t="s">
         <v>16</v>
@@ -2851,45 +3041,45 @@
         <v>1</v>
       </c>
       <c r="F43" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="G43" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="H43">
-        <v>215185.65245261299</v>
+        <v>41645.264024791199</v>
       </c>
       <c r="I43">
-        <v>224512.11027345399</v>
+        <v>41957.603268127401</v>
       </c>
       <c r="J43">
-        <v>229775.32057613801</v>
+        <v>43452.517415497197</v>
       </c>
       <c r="K43">
-        <v>249338.629349433</v>
+        <v>44267.629945407702</v>
       </c>
       <c r="L43">
-        <v>256460.72655377901</v>
+        <v>47170.368992831303</v>
       </c>
       <c r="M43">
-        <v>202104.539863418</v>
+        <v>40727.718823904797</v>
       </c>
       <c r="N43">
-        <v>0.111697148938182</v>
+        <v>6.3066905058436998E-2</v>
       </c>
       <c r="O43">
-        <v>0.13071996835833399</v>
+        <v>7.4808509216824207E-2</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>142.137272136642</v>
+        <v>144.156579447149</v>
       </c>
       <c r="B44">
-        <v>565.28899999997998</v>
+        <v>576.87700000001996</v>
       </c>
       <c r="C44" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="D44" t="s">
         <v>16</v>
@@ -2898,45 +3088,45 @@
         <v>1</v>
       </c>
       <c r="F44" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="G44" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="H44">
-        <v>206151.46911303099</v>
+        <v>64559.400003936302</v>
       </c>
       <c r="I44">
-        <v>199517.149563983</v>
+        <v>52217.638079185999</v>
       </c>
       <c r="J44">
-        <v>196940.734703447</v>
+        <v>55760.009418823603</v>
       </c>
       <c r="K44">
-        <v>204883.83235218699</v>
+        <v>56506.417253691397</v>
       </c>
       <c r="L44">
-        <v>211652.06385343499</v>
+        <v>59070.263725527402</v>
       </c>
       <c r="M44">
-        <v>203505.00564365901</v>
+        <v>51232.0091145509</v>
       </c>
       <c r="N44">
-        <v>3.0715105947544001E-2</v>
+        <v>0.108092923951266</v>
       </c>
       <c r="O44">
-        <v>3.5355563799449798E-2</v>
+        <v>0.12858834757280199</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>142.137602046306</v>
+        <v>146.132188047705</v>
       </c>
       <c r="B45">
-        <v>555.40000000001999</v>
+        <v>401.39100000000002</v>
       </c>
       <c r="C45" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="D45" t="s">
         <v>16</v>
@@ -2945,92 +3135,92 @@
         <v>1</v>
       </c>
       <c r="F45" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="G45" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="H45">
-        <v>97389.451947844704</v>
+        <v>588739.21814993897</v>
       </c>
       <c r="I45">
-        <v>101377.995580319</v>
+        <v>533533.90781125403</v>
       </c>
       <c r="J45">
-        <v>97357.045688586295</v>
+        <v>550769.93553265603</v>
       </c>
       <c r="K45">
-        <v>106899.042615104</v>
+        <v>569506.80440253497</v>
       </c>
       <c r="L45">
-        <v>111346.79033843199</v>
+        <v>578159.13157682098</v>
       </c>
       <c r="M45">
-        <v>104875.113687908</v>
+        <v>545882.56456376798</v>
       </c>
       <c r="N45">
-        <v>6.32483839580225E-2</v>
+        <v>4.6923367659124998E-2</v>
       </c>
       <c r="O45">
-        <v>7.2313118739426793E-2</v>
+        <v>5.3873839266403697E-2</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>143.04181817953301</v>
+        <v>146.13237231935199</v>
       </c>
       <c r="B46">
-        <v>331.41700000001998</v>
+        <v>631.01400000000001</v>
       </c>
       <c r="C46" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D46" t="s">
         <v>16</v>
       </c>
       <c r="E46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F46" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G46" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H46">
-        <v>89869.056810649796</v>
+        <v>44778.061554463398</v>
       </c>
       <c r="I46">
-        <v>81034.019344302695</v>
+        <v>33124.443577577302</v>
       </c>
       <c r="J46">
-        <v>80562.972146642103</v>
+        <v>35877.568815858802</v>
       </c>
       <c r="K46">
-        <v>84448.066763798401</v>
+        <v>43115.277743642902</v>
       </c>
       <c r="L46">
-        <v>88608.618897483495</v>
+        <v>43876.254414224</v>
       </c>
       <c r="M46">
-        <v>92501.496589563205</v>
+        <v>42849.943968705797</v>
       </c>
       <c r="N46">
-        <v>6.8607831638096403E-2</v>
+        <v>0.136323842861342</v>
       </c>
       <c r="O46">
-        <v>7.8859570340214999E-2</v>
+        <v>0.173051136555993</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>144.151842364153</v>
+        <v>150.09032250811401</v>
       </c>
       <c r="B47">
-        <v>615.43200000000002</v>
+        <v>230.45800000002001</v>
       </c>
       <c r="C47" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="D47" t="s">
         <v>16</v>
@@ -3039,92 +3229,92 @@
         <v>1</v>
       </c>
       <c r="F47" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="G47" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="H47">
-        <v>26299.003031305801</v>
+        <v>300990.32392596401</v>
       </c>
       <c r="I47">
-        <v>434116.921879331</v>
+        <v>299623.34536812297</v>
       </c>
       <c r="J47">
-        <v>524435.22932821</v>
+        <v>313805.42004772899</v>
       </c>
       <c r="K47">
-        <v>499851.43002200901</v>
+        <v>321475.69892056502</v>
       </c>
       <c r="L47">
-        <v>473534.52807037003</v>
+        <v>329098.63459317898</v>
       </c>
       <c r="M47">
-        <v>284325.14699776203</v>
+        <v>292989.38772871002</v>
       </c>
       <c r="N47">
-        <v>0.53884417204978596</v>
+        <v>5.5481749973685997E-2</v>
       </c>
       <c r="O47">
-        <v>0.65711284154445204</v>
+        <v>6.4261048505327198E-2</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>144.15290821103099</v>
+        <v>150.09200782044499</v>
       </c>
       <c r="B48">
-        <v>581.96699999999998</v>
+        <v>550.15300000002003</v>
       </c>
       <c r="C48" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="D48" t="s">
         <v>16</v>
       </c>
       <c r="E48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F48" t="s">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="G48" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="H48">
-        <v>41645.264024791199</v>
+        <v>29593.044286573699</v>
       </c>
       <c r="I48">
-        <v>41957.603268127401</v>
+        <v>24965.8706550426</v>
       </c>
       <c r="J48">
-        <v>43452.517415497197</v>
+        <v>26737.592479098301</v>
       </c>
       <c r="K48">
-        <v>44267.629945407702</v>
+        <v>33892.928609139199</v>
       </c>
       <c r="L48">
-        <v>47170.368992831303</v>
+        <v>34384.260116929603</v>
       </c>
       <c r="M48">
-        <v>40727.718823904797</v>
+        <v>28922.486684720199</v>
       </c>
       <c r="N48">
-        <v>6.3066905058436998E-2</v>
+        <v>0.14706216109885001</v>
       </c>
       <c r="O48">
-        <v>7.4808509216824207E-2</v>
+        <v>0.166222200639494</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>144.156579447149</v>
+        <v>150.10628167541699</v>
       </c>
       <c r="B49">
-        <v>576.87700000001996</v>
+        <v>521.87699999999995</v>
       </c>
       <c r="C49" t="s">
-        <v>57</v>
+        <v>134</v>
       </c>
       <c r="D49" t="s">
         <v>16</v>
@@ -3133,45 +3323,45 @@
         <v>1</v>
       </c>
       <c r="F49" t="s">
-        <v>58</v>
+        <v>135</v>
       </c>
       <c r="G49" t="s">
-        <v>59</v>
+        <v>136</v>
       </c>
       <c r="H49">
-        <v>64559.400003936302</v>
+        <v>397588.55336798</v>
       </c>
       <c r="I49">
-        <v>52217.638079185999</v>
+        <v>403042.54219881003</v>
       </c>
       <c r="J49">
-        <v>55760.009418823603</v>
+        <v>413626.17520257202</v>
       </c>
       <c r="K49">
-        <v>56506.417253691397</v>
+        <v>438202.40275607299</v>
       </c>
       <c r="L49">
-        <v>59070.263725527402</v>
+        <v>447167.41940184502</v>
       </c>
       <c r="M49">
-        <v>51232.0091145509</v>
+        <v>406904.62460823799</v>
       </c>
       <c r="N49">
-        <v>0.108092923951266</v>
+        <v>5.5751560368501603E-2</v>
       </c>
       <c r="O49">
-        <v>0.12858834757280199</v>
+        <v>6.5912539083863506E-2</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>146.132188047705</v>
+        <v>154.137080511872</v>
       </c>
       <c r="B50">
-        <v>401.39100000000002</v>
+        <v>543.35800000001996</v>
       </c>
       <c r="C50" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="D50" t="s">
         <v>16</v>
@@ -3180,92 +3370,92 @@
         <v>1</v>
       </c>
       <c r="F50" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="G50" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="H50">
-        <v>588739.21814993897</v>
+        <v>7626.5878467074299</v>
       </c>
       <c r="I50">
-        <v>533533.90781125403</v>
+        <v>7086.2689311407003</v>
       </c>
       <c r="J50">
-        <v>550769.93553265603</v>
+        <v>6781.8600970965799</v>
       </c>
       <c r="K50">
-        <v>569506.80440253497</v>
+        <v>7183.5119388122703</v>
       </c>
       <c r="L50">
-        <v>578159.13157682098</v>
+        <v>7507.5973745592501</v>
       </c>
       <c r="M50">
-        <v>545882.56456376798</v>
+        <v>7292.3688040213201</v>
       </c>
       <c r="N50">
-        <v>4.6923367659124998E-2</v>
+        <v>5.1811109416179002E-2</v>
       </c>
       <c r="O50">
-        <v>5.3873839266403697E-2</v>
+        <v>5.9977542236657598E-2</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>146.13237231935199</v>
+        <v>156.15284189388601</v>
       </c>
       <c r="B51">
-        <v>631.01400000000001</v>
+        <v>575.84699999999998</v>
       </c>
       <c r="C51" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="D51" t="s">
         <v>16</v>
       </c>
       <c r="E51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F51" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="G51" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="H51">
-        <v>44778.061554463398</v>
+        <v>180292.986294712</v>
       </c>
       <c r="I51">
-        <v>33124.443577577302</v>
+        <v>172887.90262301901</v>
       </c>
       <c r="J51">
-        <v>35877.568815858802</v>
+        <v>172571.812554592</v>
       </c>
       <c r="K51">
-        <v>43115.277743642902</v>
+        <v>179773.63580068099</v>
       </c>
       <c r="L51">
-        <v>43876.254414224</v>
+        <v>183819.732978252</v>
       </c>
       <c r="M51">
-        <v>42849.943968705797</v>
+        <v>176447.44686024101</v>
       </c>
       <c r="N51">
-        <v>0.136323842861342</v>
+        <v>3.04719577519302E-2</v>
       </c>
       <c r="O51">
-        <v>0.173051136555993</v>
+        <v>3.5136874742779801E-2</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>150.09032250811401</v>
+        <v>158.168774787095</v>
       </c>
       <c r="B52">
-        <v>230.45800000002001</v>
+        <v>603.69600000000003</v>
       </c>
       <c r="C52" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="D52" t="s">
         <v>16</v>
@@ -3274,92 +3464,92 @@
         <v>1</v>
       </c>
       <c r="F52" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="G52" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="H52">
-        <v>300990.32392596401</v>
+        <v>69585.353169016002</v>
       </c>
       <c r="I52">
-        <v>299623.34536812297</v>
+        <v>73916.148487657803</v>
       </c>
       <c r="J52">
-        <v>313805.42004772899</v>
+        <v>75538.8315843483</v>
       </c>
       <c r="K52">
-        <v>321475.69892056502</v>
+        <v>81277.409821466499</v>
       </c>
       <c r="L52">
-        <v>329098.63459317898</v>
+        <v>85820.709096233506</v>
       </c>
       <c r="M52">
-        <v>292989.38772871002</v>
+        <v>75587.808236995304</v>
       </c>
       <c r="N52">
-        <v>5.5481749973685997E-2</v>
+        <v>8.5158292508395295E-2</v>
       </c>
       <c r="O52">
-        <v>6.4261048505327198E-2</v>
+        <v>9.8982181291927401E-2</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>150.09200782044499</v>
+        <v>158.16879778149399</v>
       </c>
       <c r="B53">
-        <v>550.15300000002003</v>
+        <v>610.83600000000001</v>
       </c>
       <c r="C53" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D53" t="s">
         <v>16</v>
       </c>
       <c r="E53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F53" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="G53" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="H53">
-        <v>29593.044286573699</v>
+        <v>164012.95692163799</v>
       </c>
       <c r="I53">
-        <v>24965.8706550426</v>
+        <v>155151.92780883599</v>
       </c>
       <c r="J53">
-        <v>26737.592479098301</v>
+        <v>163745.78397406699</v>
       </c>
       <c r="K53">
-        <v>33892.928609139199</v>
+        <v>156942.51645181901</v>
       </c>
       <c r="L53">
-        <v>34384.260116929603</v>
+        <v>150950.147677161</v>
       </c>
       <c r="M53">
-        <v>28922.486684720199</v>
+        <v>155939.98104013101</v>
       </c>
       <c r="N53">
-        <v>0.14706216109885001</v>
+        <v>3.9678705305969598E-2</v>
       </c>
       <c r="O53">
-        <v>0.166222200639494</v>
+        <v>4.71587564337409E-2</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>150.10628167541699</v>
+        <v>172.18450163256799</v>
       </c>
       <c r="B54">
-        <v>521.87699999999995</v>
+        <v>629.53200000000004</v>
       </c>
       <c r="C54" t="s">
-        <v>111</v>
+        <v>146</v>
       </c>
       <c r="D54" t="s">
         <v>16</v>
@@ -3368,45 +3558,45 @@
         <v>1</v>
       </c>
       <c r="F54" t="s">
-        <v>112</v>
+        <v>147</v>
       </c>
       <c r="G54" t="s">
-        <v>113</v>
+        <v>148</v>
       </c>
       <c r="H54">
-        <v>397588.55336798</v>
+        <v>266397.53900973301</v>
       </c>
       <c r="I54">
-        <v>403042.54219881003</v>
+        <v>256744.26295728699</v>
       </c>
       <c r="J54">
-        <v>413626.17520257202</v>
+        <v>268416.92385151598</v>
       </c>
       <c r="K54">
-        <v>438202.40275607299</v>
+        <v>263766.53518730297</v>
       </c>
       <c r="L54">
-        <v>447167.41940184502</v>
+        <v>275167.25036078098</v>
       </c>
       <c r="M54">
-        <v>406904.62460823799</v>
+        <v>258324.27715378499</v>
       </c>
       <c r="N54">
-        <v>5.5751560368501603E-2</v>
+        <v>3.1355381633964598E-2</v>
       </c>
       <c r="O54">
-        <v>6.5912539083863506E-2</v>
+        <v>3.6085809515067499E-2</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>154.137080511872</v>
+        <v>172.197759610622</v>
       </c>
       <c r="B55">
-        <v>543.35800000001996</v>
+        <v>622.89599999999996</v>
       </c>
       <c r="C55" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="D55" t="s">
         <v>16</v>
@@ -3415,92 +3605,89 @@
         <v>1</v>
       </c>
       <c r="F55" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="G55" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="H55">
-        <v>7626.5878467074299</v>
+        <v>58295.701206612197</v>
       </c>
       <c r="I55">
-        <v>7086.2689311407003</v>
+        <v>57062.571088030898</v>
       </c>
       <c r="J55">
-        <v>6781.8600970965799</v>
+        <v>81577.2082019222</v>
       </c>
       <c r="K55">
-        <v>7183.5119388122703</v>
+        <v>65806.460605600398</v>
       </c>
       <c r="L55">
-        <v>7507.5973745592501</v>
+        <v>52392.503708193697</v>
       </c>
       <c r="M55">
-        <v>7292.3688040213201</v>
+        <v>50138.174859896098</v>
       </c>
       <c r="N55">
-        <v>5.1811109416179002E-2</v>
+        <v>0.22629115047524001</v>
       </c>
       <c r="O55">
-        <v>5.9977542236657598E-2</v>
+        <v>0.28228044259059998</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>156.15284189388601</v>
+        <v>176.07101781420701</v>
       </c>
       <c r="B56">
-        <v>575.84699999999998</v>
+        <v>359.49</v>
       </c>
       <c r="C56" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="D56" t="s">
         <v>16</v>
       </c>
       <c r="E56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F56" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="G56" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H56">
-        <v>180292.986294712</v>
+        <v>12893.277969205599</v>
       </c>
       <c r="I56">
-        <v>172887.90262301901</v>
+        <v>10083.1575736256</v>
       </c>
       <c r="J56">
-        <v>172571.812554592</v>
+        <v>9834.7773396351604</v>
       </c>
       <c r="K56">
-        <v>179773.63580068099</v>
-      </c>
-      <c r="L56">
-        <v>183819.732978252</v>
+        <v>1145.1412344145101</v>
       </c>
       <c r="M56">
-        <v>176447.44686024101</v>
+        <v>22761.322836847601</v>
       </c>
       <c r="N56">
-        <v>3.04719577519302E-2</v>
+        <v>2.8775640445585999</v>
       </c>
       <c r="O56">
-        <v>3.5136874742779801E-2</v>
+        <v>4.7502580678209796</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>158.168774787095</v>
+        <v>182.09509548430299</v>
       </c>
       <c r="B57">
-        <v>603.69600000000003</v>
+        <v>387.108</v>
       </c>
       <c r="C57" t="s">
-        <v>60</v>
+        <v>154</v>
       </c>
       <c r="D57" t="s">
         <v>16</v>
@@ -3509,92 +3696,92 @@
         <v>1</v>
       </c>
       <c r="F57" t="s">
-        <v>61</v>
+        <v>155</v>
       </c>
       <c r="G57" t="s">
-        <v>62</v>
+        <v>156</v>
       </c>
       <c r="H57">
-        <v>69585.353169016002</v>
+        <v>13880.076276641899</v>
       </c>
       <c r="I57">
-        <v>73916.148487657803</v>
+        <v>71201.259977627094</v>
       </c>
       <c r="J57">
-        <v>75538.8315843483</v>
+        <v>71606.084393780606</v>
       </c>
       <c r="K57">
-        <v>81277.409821466499</v>
+        <v>72824.024564759602</v>
       </c>
       <c r="L57">
-        <v>85820.709096233506</v>
+        <v>76054.607865130602</v>
       </c>
       <c r="M57">
-        <v>75587.808236995304</v>
+        <v>62655.459135099503</v>
       </c>
       <c r="N57">
-        <v>8.5158292508395295E-2</v>
+        <v>0.32542864884792899</v>
       </c>
       <c r="O57">
-        <v>9.8982181291927401E-2</v>
+        <v>0.47248670626581901</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>158.16879778149399</v>
+        <v>182.09712235112499</v>
       </c>
       <c r="B58">
-        <v>610.83600000000001</v>
+        <v>612.14800000002003</v>
       </c>
       <c r="C58" t="s">
-        <v>60</v>
+        <v>157</v>
       </c>
       <c r="D58" t="s">
         <v>16</v>
       </c>
       <c r="E58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F58" t="s">
-        <v>61</v>
+        <v>158</v>
       </c>
       <c r="G58" t="s">
-        <v>62</v>
+        <v>159</v>
       </c>
       <c r="H58">
-        <v>164012.95692163799</v>
+        <v>13764.254825423101</v>
       </c>
       <c r="I58">
-        <v>155151.92780883599</v>
+        <v>10712.565464744101</v>
       </c>
       <c r="J58">
-        <v>163745.78397406699</v>
+        <v>12048.3539095132</v>
       </c>
       <c r="K58">
-        <v>156942.51645181901</v>
+        <v>14401.0629130175</v>
       </c>
       <c r="L58">
-        <v>150950.147677161</v>
+        <v>15475.126417039701</v>
       </c>
       <c r="M58">
-        <v>155939.98104013101</v>
+        <v>13448.690293889</v>
       </c>
       <c r="N58">
-        <v>3.9678705305969598E-2</v>
+        <v>0.15090408225150301</v>
       </c>
       <c r="O58">
-        <v>4.71587564337409E-2</v>
+        <v>0.17306318831372</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>172.18450163256799</v>
+        <v>186.20026488788699</v>
       </c>
       <c r="B59">
-        <v>629.53200000000004</v>
+        <v>640.13899999998</v>
       </c>
       <c r="C59" t="s">
-        <v>63</v>
+        <v>160</v>
       </c>
       <c r="D59" t="s">
         <v>16</v>
@@ -3603,45 +3790,45 @@
         <v>1</v>
       </c>
       <c r="F59" t="s">
-        <v>64</v>
+        <v>161</v>
       </c>
       <c r="G59" t="s">
-        <v>65</v>
+        <v>162</v>
       </c>
       <c r="H59">
-        <v>266397.53900973301</v>
+        <v>401277.147582501</v>
       </c>
       <c r="I59">
-        <v>256744.26295728699</v>
+        <v>364246.22734805901</v>
       </c>
       <c r="J59">
-        <v>268416.92385151598</v>
+        <v>388860.01815317001</v>
       </c>
       <c r="K59">
-        <v>263766.53518730297</v>
+        <v>365842.52435202501</v>
       </c>
       <c r="L59">
-        <v>275167.25036078098</v>
+        <v>353774.16018205701</v>
       </c>
       <c r="M59">
-        <v>258324.27715378499</v>
+        <v>379363.01685329602</v>
       </c>
       <c r="N59">
-        <v>3.1355381633964598E-2</v>
+        <v>5.8929057871462E-2</v>
       </c>
       <c r="O59">
-        <v>3.6085809515067499E-2</v>
+        <v>6.8311901014687398E-2</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>172.197759610622</v>
+        <v>186.20479010366401</v>
       </c>
       <c r="B60">
-        <v>622.89599999999996</v>
+        <v>648.35599999997999</v>
       </c>
       <c r="C60" t="s">
-        <v>63</v>
+        <v>160</v>
       </c>
       <c r="D60" t="s">
         <v>16</v>
@@ -3650,45 +3837,45 @@
         <v>1</v>
       </c>
       <c r="F60" t="s">
-        <v>64</v>
+        <v>161</v>
       </c>
       <c r="G60" t="s">
-        <v>65</v>
+        <v>162</v>
       </c>
       <c r="H60">
-        <v>58295.701206612197</v>
+        <v>152765.02182214399</v>
       </c>
       <c r="I60">
-        <v>57062.571088030898</v>
+        <v>120180.848985405</v>
       </c>
       <c r="J60">
-        <v>81577.2082019222</v>
+        <v>140370.21330152999</v>
       </c>
       <c r="K60">
-        <v>65806.460605600398</v>
+        <v>146183.37524713701</v>
       </c>
       <c r="L60">
-        <v>52392.503708193697</v>
+        <v>147944.735074464</v>
       </c>
       <c r="M60">
-        <v>50138.174859896098</v>
+        <v>120921.57337405199</v>
       </c>
       <c r="N60">
-        <v>0.22629115047524001</v>
+        <v>0.12746406066003499</v>
       </c>
       <c r="O60">
-        <v>0.28228044259059998</v>
+        <v>0.1560177977045</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>176.07101781420701</v>
+        <v>190.08656264826399</v>
       </c>
       <c r="B61">
-        <v>359.49</v>
+        <v>376.47199999998003</v>
       </c>
       <c r="C61" t="s">
-        <v>66</v>
+        <v>163</v>
       </c>
       <c r="D61" t="s">
         <v>16</v>
@@ -3697,42 +3884,45 @@
         <v>2</v>
       </c>
       <c r="F61" t="s">
-        <v>67</v>
+        <v>164</v>
       </c>
       <c r="G61" t="s">
-        <v>68</v>
+        <v>165</v>
       </c>
       <c r="H61">
-        <v>12893.277969205599</v>
+        <v>9881.6530635352301</v>
       </c>
       <c r="I61">
-        <v>10083.1575736256</v>
+        <v>9451.4465848885193</v>
       </c>
       <c r="J61">
-        <v>9834.7773396351604</v>
+        <v>8745.1126975123698</v>
       </c>
       <c r="K61">
-        <v>1145.1412344145101</v>
+        <v>5521.2977162234702</v>
+      </c>
+      <c r="L61">
+        <v>776.36673701905897</v>
       </c>
       <c r="M61">
-        <v>22761.322836847601</v>
+        <v>17476.931130577199</v>
       </c>
       <c r="N61">
-        <v>2.8775640445585999</v>
+        <v>2.9768428332668102</v>
       </c>
       <c r="O61">
-        <v>4.7502580678209796</v>
+        <v>5.2194370807052799</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>182.09509548430299</v>
+        <v>195.14763951137101</v>
       </c>
       <c r="B62">
-        <v>387.108</v>
+        <v>230.45800000002001</v>
       </c>
       <c r="C62" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="D62" t="s">
         <v>16</v>
@@ -3741,127 +3931,139 @@
         <v>1</v>
       </c>
       <c r="F62" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="G62" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="H62">
-        <v>13880.076276641899</v>
+        <v>11062.503218232299</v>
       </c>
       <c r="I62">
-        <v>71201.259977627094</v>
+        <v>7187.7022291410503</v>
       </c>
       <c r="J62">
-        <v>71606.084393780606</v>
+        <v>7312.7190672229399</v>
       </c>
       <c r="K62">
-        <v>72824.024564759602</v>
+        <v>8364.5324322923807</v>
       </c>
       <c r="L62">
-        <v>76054.607865130602</v>
+        <v>8622.9989434507897</v>
       </c>
       <c r="M62">
-        <v>62655.459135099503</v>
+        <v>11351.7031170471</v>
       </c>
       <c r="N62">
-        <v>0.32542864884792899</v>
+        <v>0.23605690911847901</v>
       </c>
       <c r="O62">
-        <v>0.47248670626581901</v>
+        <v>0.284493648502603</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>182.09712235112499</v>
+        <v>200.21589858398201</v>
       </c>
       <c r="B63">
-        <v>612.14800000002003</v>
+        <v>664.90000000001999</v>
       </c>
       <c r="C63" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="D63" t="s">
         <v>16</v>
       </c>
       <c r="E63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F63" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="G63" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="H63">
-        <v>13764.254825423101</v>
+        <v>367091.71737036901</v>
       </c>
       <c r="I63">
-        <v>10712.565464744101</v>
+        <v>345385.69554127898</v>
       </c>
       <c r="J63">
-        <v>12048.3539095132</v>
+        <v>348525.87402927998</v>
       </c>
       <c r="K63">
-        <v>14401.0629130175</v>
+        <v>359856.84235800902</v>
       </c>
       <c r="L63">
-        <v>15475.126417039701</v>
+        <v>373925.093219476</v>
       </c>
       <c r="M63">
-        <v>13448.690293889</v>
+        <v>368867.64290466002</v>
       </c>
       <c r="N63">
-        <v>0.15090408225150301</v>
+        <v>3.8589233471854903E-2</v>
       </c>
       <c r="O63">
-        <v>0.17306318831372</v>
+        <v>4.4700136683991899E-2</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>186.20026488788699</v>
+        <v>204.102772829819</v>
       </c>
       <c r="B64">
-        <v>640.13899999998</v>
+        <v>396.33400000002001</v>
+      </c>
+      <c r="C64" t="s">
+        <v>172</v>
       </c>
       <c r="D64" t="s">
         <v>16</v>
       </c>
       <c r="E64">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="F64" t="s">
+        <v>173</v>
+      </c>
+      <c r="G64" t="s">
+        <v>174</v>
       </c>
       <c r="H64">
-        <v>401277.147582501</v>
+        <v>12041.1710124206</v>
       </c>
       <c r="I64">
-        <v>364246.22734805901</v>
+        <v>8830.3829367737198</v>
       </c>
       <c r="J64">
-        <v>388860.01815317001</v>
+        <v>15308.0239550964</v>
       </c>
       <c r="K64">
-        <v>365842.52435202501</v>
+        <v>5788.19897312796</v>
       </c>
       <c r="L64">
-        <v>353774.16018205701</v>
+        <v>3423.7716422879798</v>
       </c>
       <c r="M64">
-        <v>379363.01685329602</v>
+        <v>24945.4176966329</v>
       </c>
       <c r="N64">
-        <v>5.8929057871462E-2</v>
+        <v>1.04592473950778</v>
       </c>
       <c r="O64">
-        <v>6.8311901014687398E-2</v>
+        <v>1.3669304695279401</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>186.20479010366401</v>
+        <v>214.231345373615</v>
       </c>
       <c r="B65">
-        <v>648.35599999997999</v>
+        <v>680.53200000000004</v>
+      </c>
+      <c r="C65" t="s">
+        <v>175</v>
       </c>
       <c r="D65" t="s">
         <v>16</v>
@@ -3869,40 +4071,46 @@
       <c r="E65">
         <v>1</v>
       </c>
+      <c r="F65" t="s">
+        <v>176</v>
+      </c>
+      <c r="G65" t="s">
+        <v>177</v>
+      </c>
       <c r="H65">
-        <v>152765.02182214399</v>
+        <v>149588.345208749</v>
       </c>
       <c r="I65">
-        <v>120180.848985405</v>
+        <v>130491.38104793501</v>
       </c>
       <c r="J65">
-        <v>140370.21330152999</v>
+        <v>144783.052922754</v>
       </c>
       <c r="K65">
-        <v>146183.37524713701</v>
+        <v>149994.66196303401</v>
       </c>
       <c r="L65">
-        <v>147944.735074464</v>
+        <v>155718.847237015</v>
       </c>
       <c r="M65">
-        <v>120921.57337405199</v>
+        <v>135539.20083763299</v>
       </c>
       <c r="N65">
-        <v>0.12746406066003499</v>
+        <v>8.1248228621194907E-2</v>
       </c>
       <c r="O65">
-        <v>0.1560177977045</v>
+        <v>9.4793426657235599E-2</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>190.08656264826399</v>
+        <v>218.117631370412</v>
       </c>
       <c r="B66">
-        <v>376.47199999998003</v>
+        <v>418.91899999997997</v>
       </c>
       <c r="C66" t="s">
-        <v>114</v>
+        <v>178</v>
       </c>
       <c r="D66" t="s">
         <v>16</v>
@@ -3911,89 +4119,92 @@
         <v>2</v>
       </c>
       <c r="F66" t="s">
-        <v>115</v>
+        <v>179</v>
       </c>
       <c r="G66" t="s">
-        <v>116</v>
+        <v>180</v>
       </c>
       <c r="H66">
-        <v>9881.6530635352301</v>
+        <v>8095.4960035341301</v>
       </c>
       <c r="I66">
-        <v>9451.4465848885193</v>
+        <v>5372.8904662353898</v>
       </c>
       <c r="J66">
-        <v>8745.1126975123698</v>
+        <v>4667.3070745915502</v>
       </c>
       <c r="K66">
-        <v>5521.2977162234702</v>
+        <v>1082.9609698834099</v>
       </c>
       <c r="L66">
-        <v>776.36673701905897</v>
+        <v>1420.44479178708</v>
       </c>
       <c r="M66">
-        <v>17476.931130577199</v>
+        <v>13851.4020092745</v>
       </c>
       <c r="N66">
-        <v>2.9768428332668102</v>
+        <v>1.91026550295863</v>
       </c>
       <c r="O66">
-        <v>5.2194370807052799</v>
+        <v>2.67263506067198</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>195.14763951137101</v>
+        <v>222.076571068042</v>
       </c>
       <c r="B67">
-        <v>230.45800000002001</v>
+        <v>324.65599999998</v>
       </c>
       <c r="C67" t="s">
-        <v>154</v>
+        <v>181</v>
       </c>
       <c r="D67" t="s">
         <v>16</v>
       </c>
       <c r="E67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F67" t="s">
-        <v>155</v>
+        <v>182</v>
       </c>
       <c r="G67" t="s">
-        <v>156</v>
+        <v>183</v>
       </c>
       <c r="H67">
-        <v>11062.503218232299</v>
+        <v>12972.158497621</v>
       </c>
       <c r="I67">
-        <v>7187.7022291410503</v>
+        <v>8838.5837745928293</v>
       </c>
       <c r="J67">
-        <v>7312.7190672229399</v>
+        <v>6906.8648347917497</v>
       </c>
       <c r="K67">
-        <v>8364.5324322923807</v>
+        <v>2126.5610730332901</v>
       </c>
       <c r="L67">
-        <v>8622.9989434507897</v>
+        <v>3140.99940758091</v>
       </c>
       <c r="M67">
-        <v>11351.7031170471</v>
+        <v>20881.776638017898</v>
       </c>
       <c r="N67">
-        <v>0.23605690911847901</v>
+        <v>1.4645363091702699</v>
       </c>
       <c r="O67">
-        <v>0.284493648502603</v>
+        <v>1.98620383580288</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>200.21589858398201</v>
+        <v>228.246893673459</v>
       </c>
       <c r="B68">
-        <v>664.90000000001999</v>
+        <v>695.38300000002005</v>
+      </c>
+      <c r="C68" t="s">
+        <v>184</v>
       </c>
       <c r="D68" t="s">
         <v>16</v>
@@ -4001,84 +4212,93 @@
       <c r="E68">
         <v>1</v>
       </c>
+      <c r="F68" t="s">
+        <v>185</v>
+      </c>
+      <c r="G68" t="s">
+        <v>186</v>
+      </c>
       <c r="H68">
-        <v>367091.71737036901</v>
+        <v>290296.96597434703</v>
       </c>
       <c r="I68">
-        <v>345385.69554127898</v>
+        <v>268804.36497305898</v>
       </c>
       <c r="J68">
-        <v>348525.87402927998</v>
+        <v>282263.34390521498</v>
       </c>
       <c r="K68">
-        <v>359856.84235800902</v>
+        <v>299533.22781684401</v>
       </c>
       <c r="L68">
-        <v>373925.093219476</v>
+        <v>308542.08203447098</v>
       </c>
       <c r="M68">
-        <v>368867.64290466002</v>
+        <v>284039.36257633503</v>
       </c>
       <c r="N68">
-        <v>3.8589233471854903E-2</v>
+        <v>5.8147246766440203E-2</v>
       </c>
       <c r="O68">
-        <v>4.4700136683991899E-2</v>
+        <v>6.6475809524082705E-2</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>204.102772829819</v>
+        <v>242.26271970822</v>
       </c>
       <c r="B69">
-        <v>396.33400000002001</v>
+        <v>708.79600000001994</v>
       </c>
       <c r="C69" t="s">
-        <v>117</v>
+        <v>187</v>
       </c>
       <c r="D69" t="s">
         <v>16</v>
       </c>
       <c r="E69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F69" t="s">
-        <v>118</v>
+        <v>188</v>
       </c>
       <c r="G69" t="s">
-        <v>119</v>
+        <v>189</v>
       </c>
       <c r="H69">
-        <v>12041.1710124206</v>
+        <v>279248.52304625901</v>
       </c>
       <c r="I69">
-        <v>8830.3829367737198</v>
+        <v>272994.930846709</v>
       </c>
       <c r="J69">
-        <v>15308.0239550964</v>
+        <v>276074.27328856499</v>
       </c>
       <c r="K69">
-        <v>5788.19897312796</v>
+        <v>291161.651020066</v>
       </c>
       <c r="L69">
-        <v>3423.7716422879798</v>
+        <v>295541.39822470897</v>
       </c>
       <c r="M69">
-        <v>24945.4176966329</v>
+        <v>277638.41123411001</v>
       </c>
       <c r="N69">
-        <v>1.04592473950778</v>
+        <v>3.6942826811968699E-2</v>
       </c>
       <c r="O69">
-        <v>1.3669304695279401</v>
+        <v>4.42167048915535E-2</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>214.231345373615</v>
+        <v>270.29807013309801</v>
       </c>
       <c r="B70">
-        <v>680.53200000000004</v>
+        <v>734.25799999998003</v>
+      </c>
+      <c r="C70" t="s">
+        <v>190</v>
       </c>
       <c r="D70" t="s">
         <v>16</v>
@@ -4086,131 +4306,140 @@
       <c r="E70">
         <v>1</v>
       </c>
+      <c r="F70" t="s">
+        <v>191</v>
+      </c>
+      <c r="G70" t="s">
+        <v>192</v>
+      </c>
       <c r="H70">
-        <v>149588.345208749</v>
+        <v>986909.08587454597</v>
       </c>
       <c r="I70">
-        <v>130491.38104793501</v>
+        <v>823745.70805360202</v>
       </c>
       <c r="J70">
-        <v>144783.052922754</v>
+        <v>1072081.0057703</v>
       </c>
       <c r="K70">
-        <v>149994.66196303401</v>
+        <v>970031.79756624205</v>
       </c>
       <c r="L70">
-        <v>155718.847237015</v>
+        <v>962617.86130334204</v>
       </c>
       <c r="M70">
-        <v>135539.20083763299</v>
+        <v>1027999.66435716</v>
       </c>
       <c r="N70">
-        <v>8.1248228621194907E-2</v>
+        <v>9.8334216505411007E-2</v>
       </c>
       <c r="O70">
-        <v>9.4793426657235599E-2</v>
+        <v>0.120524623964016</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>218.117631370412</v>
+        <v>270.29897758937</v>
       </c>
       <c r="B71">
-        <v>418.91899999997997</v>
+        <v>733.51300000002004</v>
       </c>
       <c r="C71" t="s">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="D71" t="s">
         <v>16</v>
       </c>
       <c r="E71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F71" t="s">
-        <v>158</v>
+        <v>191</v>
       </c>
       <c r="G71" t="s">
-        <v>159</v>
+        <v>192</v>
       </c>
       <c r="H71">
-        <v>8095.4960035341301</v>
+        <v>4102.9456100077005</v>
       </c>
       <c r="I71">
-        <v>5372.8904662353898</v>
+        <v>3778.1036505257498</v>
       </c>
       <c r="J71">
-        <v>4667.3070745915502</v>
+        <v>4285.2591116828598</v>
       </c>
       <c r="K71">
-        <v>1082.9609698834099</v>
+        <v>4147.2028466505499</v>
       </c>
       <c r="L71">
-        <v>1420.44479178708</v>
+        <v>3927.8445622756999</v>
       </c>
       <c r="M71">
-        <v>13851.4020092745</v>
+        <v>4054.3595821509398</v>
       </c>
       <c r="N71">
-        <v>1.91026550295863</v>
+        <v>5.3370318271799798E-2</v>
       </c>
       <c r="O71">
-        <v>2.67263506067198</v>
+        <v>6.14923403816642E-2</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>222.076571068042</v>
+        <v>272.184072268227</v>
       </c>
       <c r="B72">
-        <v>324.65599999998</v>
+        <v>520.29100000001995</v>
       </c>
       <c r="C72" t="s">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="D72" t="s">
         <v>16</v>
       </c>
       <c r="E72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F72" t="s">
-        <v>161</v>
+        <v>194</v>
       </c>
       <c r="G72" t="s">
-        <v>162</v>
+        <v>195</v>
       </c>
       <c r="H72">
-        <v>12972.158497621</v>
+        <v>14750.824491588</v>
       </c>
       <c r="I72">
-        <v>8838.5837745928293</v>
+        <v>12081.824446627301</v>
       </c>
       <c r="J72">
-        <v>6906.8648347917497</v>
+        <v>14168.0205018085</v>
       </c>
       <c r="K72">
-        <v>2126.5610730332901</v>
+        <v>15878.5062053663</v>
       </c>
       <c r="L72">
-        <v>3140.99940758091</v>
+        <v>13116.2231294307</v>
       </c>
       <c r="M72">
-        <v>20881.776638017898</v>
+        <v>12633.201845691199</v>
       </c>
       <c r="N72">
-        <v>1.4645363091702699</v>
+        <v>0.129953572996303</v>
       </c>
       <c r="O72">
-        <v>1.98620383580288</v>
+        <v>0.148491336856796</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>228.246893673459</v>
+        <v>276.25177322273498</v>
       </c>
       <c r="B73">
-        <v>695.38300000002005</v>
+        <v>694.81399999997996</v>
+      </c>
+      <c r="C73" t="s">
+        <v>196</v>
       </c>
       <c r="D73" t="s">
         <v>16</v>
@@ -4218,75 +4447,93 @@
       <c r="E73">
         <v>1</v>
       </c>
+      <c r="F73" t="s">
+        <v>197</v>
+      </c>
+      <c r="G73" t="s">
+        <v>198</v>
+      </c>
       <c r="H73">
-        <v>290296.96597434703</v>
+        <v>175547.00548640799</v>
       </c>
       <c r="I73">
-        <v>268804.36497305898</v>
+        <v>149935.286970958</v>
       </c>
       <c r="J73">
-        <v>282263.34390521498</v>
+        <v>181837.91851961901</v>
       </c>
       <c r="K73">
-        <v>299533.22781684401</v>
+        <v>173413.743124459</v>
       </c>
       <c r="L73">
-        <v>308542.08203447098</v>
+        <v>164938.88325919799</v>
       </c>
       <c r="M73">
-        <v>284039.36257633503</v>
+        <v>186810.68497469899</v>
       </c>
       <c r="N73">
-        <v>5.8147246766440203E-2</v>
+        <v>9.0623379700988299E-2</v>
       </c>
       <c r="O73">
-        <v>6.6475809524082705E-2</v>
+        <v>0.10636610565982001</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>242.26271970822</v>
+        <v>288.18265557143798</v>
       </c>
       <c r="B74">
-        <v>708.79600000001994</v>
+        <v>646.50400000002003</v>
+      </c>
+      <c r="C74" t="s">
+        <v>199</v>
       </c>
       <c r="D74" t="s">
         <v>16</v>
       </c>
       <c r="E74">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="F74" t="s">
+        <v>200</v>
+      </c>
+      <c r="G74" t="s">
+        <v>201</v>
       </c>
       <c r="H74">
-        <v>279248.52304625901</v>
+        <v>32291.285874363599</v>
       </c>
       <c r="I74">
-        <v>272994.930846709</v>
+        <v>22350.694931446898</v>
       </c>
       <c r="J74">
-        <v>276074.27328856499</v>
+        <v>33221.925414664402</v>
       </c>
       <c r="K74">
-        <v>291161.651020066</v>
+        <v>26852.3219028618</v>
       </c>
       <c r="L74">
-        <v>295541.39822470897</v>
+        <v>25453.559072583699</v>
       </c>
       <c r="M74">
-        <v>277638.41123411001</v>
+        <v>27594.8456499598</v>
       </c>
       <c r="N74">
-        <v>3.6942826811968699E-2</v>
+        <v>0.18844990480823501</v>
       </c>
       <c r="O74">
-        <v>4.42167048915535E-2</v>
+        <v>0.22025303107595801</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>256.28324521301897</v>
+        <v>290.224686041128</v>
       </c>
       <c r="B75">
-        <v>722.47199999999998</v>
+        <v>543.26500000002</v>
+      </c>
+      <c r="C75" t="s">
+        <v>202</v>
       </c>
       <c r="D75" t="s">
         <v>16</v>
@@ -4294,37 +4541,46 @@
       <c r="E75">
         <v>1</v>
       </c>
+      <c r="F75" t="s">
+        <v>203</v>
+      </c>
+      <c r="G75" t="s">
+        <v>204</v>
+      </c>
       <c r="H75">
-        <v>564342.62758957397</v>
+        <v>9426.9710648259606</v>
       </c>
       <c r="I75">
-        <v>477956.22150330298</v>
+        <v>9554.9959294663004</v>
       </c>
       <c r="J75">
-        <v>657132.81238946796</v>
+        <v>10214.8727778554</v>
       </c>
       <c r="K75">
-        <v>586946.32212913898</v>
+        <v>11211.567548522</v>
       </c>
       <c r="L75">
-        <v>617307.19753835001</v>
+        <v>10833.6366529892</v>
       </c>
       <c r="M75">
-        <v>591977.32633879595</v>
+        <v>6873.1804577641296</v>
       </c>
       <c r="N75">
-        <v>0.117618076202338</v>
+        <v>0.22307926322618299</v>
       </c>
       <c r="O75">
-        <v>0.140335656335975</v>
+        <v>0.30086252481325099</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>270.29807013309801</v>
+        <v>290.23084247588702</v>
       </c>
       <c r="B76">
-        <v>734.25799999998003</v>
+        <v>576.70900000001996</v>
+      </c>
+      <c r="C76" t="s">
+        <v>205</v>
       </c>
       <c r="D76" t="s">
         <v>16</v>
@@ -4332,37 +4588,46 @@
       <c r="E76">
         <v>1</v>
       </c>
+      <c r="F76" t="s">
+        <v>206</v>
+      </c>
+      <c r="G76" t="s">
+        <v>207</v>
+      </c>
       <c r="H76">
-        <v>986909.08587454597</v>
+        <v>13937.8863357596</v>
       </c>
       <c r="I76">
-        <v>823745.70805360202</v>
+        <v>12707.315086012801</v>
       </c>
       <c r="J76">
-        <v>1072081.0057703</v>
+        <v>14361.053044821099</v>
       </c>
       <c r="K76">
-        <v>970031.79756624205</v>
+        <v>14042.419881853601</v>
       </c>
       <c r="L76">
-        <v>962617.86130334204</v>
+        <v>14104.2799679619</v>
       </c>
       <c r="M76">
-        <v>1027999.66435716</v>
+        <v>8729.5073851366305</v>
       </c>
       <c r="N76">
-        <v>9.8334216505411007E-2</v>
+        <v>0.22812355775357701</v>
       </c>
       <c r="O76">
-        <v>0.120524623964016</v>
+        <v>0.34377425663662903</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>270.29897758937</v>
+        <v>290.23087370654298</v>
       </c>
       <c r="B77">
-        <v>733.51300000002004</v>
+        <v>570.24499999998</v>
+      </c>
+      <c r="C77" t="s">
+        <v>205</v>
       </c>
       <c r="D77" t="s">
         <v>16</v>
@@ -4370,40 +4635,46 @@
       <c r="E77">
         <v>1</v>
       </c>
+      <c r="F77" t="s">
+        <v>208</v>
+      </c>
+      <c r="G77" t="s">
+        <v>209</v>
+      </c>
       <c r="H77">
-        <v>4102.9456100077005</v>
+        <v>35596.203681297302</v>
       </c>
       <c r="I77">
-        <v>3778.1036505257498</v>
+        <v>31172.3183765213</v>
       </c>
       <c r="J77">
-        <v>4285.2591116828598</v>
+        <v>32140.007999834601</v>
       </c>
       <c r="K77">
-        <v>4147.2028466505499</v>
+        <v>30709.2529369162</v>
       </c>
       <c r="L77">
-        <v>3927.8445622756999</v>
+        <v>30491.820434568301</v>
       </c>
       <c r="M77">
-        <v>4054.3595821509398</v>
+        <v>29216.604634688902</v>
       </c>
       <c r="N77">
-        <v>5.3370318271799798E-2</v>
+        <v>8.20906335097909E-2</v>
       </c>
       <c r="O77">
-        <v>6.14923403816642E-2</v>
+        <v>0.102798869526555</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>272.184072268227</v>
+        <v>298.32734604186902</v>
       </c>
       <c r="B78">
-        <v>520.29100000001995</v>
+        <v>769.70699999999999</v>
       </c>
       <c r="C78" t="s">
-        <v>165</v>
+        <v>210</v>
       </c>
       <c r="D78" t="s">
         <v>16</v>
@@ -4412,42 +4683,45 @@
         <v>1</v>
       </c>
       <c r="F78" t="s">
-        <v>166</v>
+        <v>211</v>
       </c>
       <c r="G78" t="s">
-        <v>167</v>
+        <v>212</v>
       </c>
       <c r="H78">
-        <v>14750.824491588</v>
+        <v>5593.8910114270802</v>
       </c>
       <c r="I78">
-        <v>12081.824446627301</v>
+        <v>148533.48143400301</v>
       </c>
       <c r="J78">
-        <v>14168.0205018085</v>
+        <v>152554.41618745701</v>
       </c>
       <c r="K78">
-        <v>15878.5062053663</v>
+        <v>177406.352119191</v>
       </c>
       <c r="L78">
-        <v>13116.2231294307</v>
+        <v>157040.255537099</v>
       </c>
       <c r="M78">
-        <v>12633.201845691199</v>
+        <v>167506.79526682</v>
       </c>
       <c r="N78">
-        <v>0.129953572996303</v>
+        <v>0.37939028038021</v>
       </c>
       <c r="O78">
-        <v>0.148491336856796</v>
+        <v>0.56284744635533701</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>276.25177322273498</v>
+        <v>302.19004146800199</v>
       </c>
       <c r="B79">
-        <v>694.81399999997996</v>
+        <v>499.33800000000002</v>
+      </c>
+      <c r="C79" t="s">
+        <v>213</v>
       </c>
       <c r="D79" t="s">
         <v>16</v>
@@ -4455,37 +4729,46 @@
       <c r="E79">
         <v>1</v>
       </c>
+      <c r="F79" t="s">
+        <v>214</v>
+      </c>
+      <c r="G79" t="s">
+        <v>215</v>
+      </c>
       <c r="H79">
-        <v>175547.00548640799</v>
+        <v>5440.2393798200101</v>
       </c>
       <c r="I79">
-        <v>149935.286970958</v>
+        <v>6254.1224949443304</v>
       </c>
       <c r="J79">
-        <v>181837.91851961901</v>
+        <v>6647.61042845678</v>
       </c>
       <c r="K79">
-        <v>173413.743124459</v>
+        <v>7049.7673544612398</v>
       </c>
       <c r="L79">
-        <v>164938.88325919799</v>
+        <v>6906.3590841757396</v>
       </c>
       <c r="M79">
-        <v>186810.68497469899</v>
+        <v>6633.1583452430395</v>
       </c>
       <c r="N79">
-        <v>9.0623379700988299E-2</v>
+        <v>9.8485421948281901E-2</v>
       </c>
       <c r="O79">
-        <v>0.10636610565982001</v>
+        <v>0.120724641681246</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>284.314581714285</v>
+        <v>302.19182450980202</v>
       </c>
       <c r="B80">
-        <v>744.64800000000002</v>
+        <v>447.64900000002001</v>
+      </c>
+      <c r="C80" t="s">
+        <v>213</v>
       </c>
       <c r="D80" t="s">
         <v>16</v>
@@ -4493,78 +4776,93 @@
       <c r="E80">
         <v>1</v>
       </c>
+      <c r="F80" t="s">
+        <v>216</v>
+      </c>
+      <c r="G80" t="s">
+        <v>217</v>
+      </c>
       <c r="H80">
-        <v>679423.49283105601</v>
+        <v>8943.2021469476203</v>
       </c>
       <c r="I80">
-        <v>622663.02929476998</v>
+        <v>7567.6396820311302</v>
       </c>
       <c r="J80">
-        <v>723692.88231376698</v>
+        <v>7718.9901662555903</v>
       </c>
       <c r="K80">
-        <v>710667.10157483397</v>
+        <v>8351.0696800872793</v>
       </c>
       <c r="L80">
-        <v>646562.49905917305</v>
+        <v>8435.6470396368004</v>
       </c>
       <c r="M80">
-        <v>729152.44509494002</v>
+        <v>9926.8621014484597</v>
       </c>
       <c r="N80">
-        <v>7.6309350247975E-2</v>
+        <v>0.115103481535916</v>
       </c>
       <c r="O80">
-        <v>8.8190557031700395E-2</v>
+        <v>0.13246246230039199</v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>288.18265557143798</v>
+        <v>316.24779844692603</v>
       </c>
       <c r="B81">
-        <v>646.50400000002003</v>
+        <v>615.18600000000004</v>
+      </c>
+      <c r="C81" t="s">
+        <v>218</v>
       </c>
       <c r="D81" t="s">
         <v>16</v>
       </c>
       <c r="E81">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="F81" t="s">
+        <v>219</v>
+      </c>
+      <c r="G81" t="s">
+        <v>220</v>
       </c>
       <c r="H81">
-        <v>32291.285874363599</v>
+        <v>4655.9274279001902</v>
       </c>
       <c r="I81">
-        <v>22350.694931446898</v>
+        <v>4201.4625101845204</v>
       </c>
       <c r="J81">
-        <v>33221.925414664402</v>
+        <v>4918.69740065734</v>
       </c>
       <c r="K81">
-        <v>26852.3219028618</v>
+        <v>5505.7455840562898</v>
       </c>
       <c r="L81">
-        <v>25453.559072583699</v>
+        <v>5317.5174553765901</v>
       </c>
       <c r="M81">
-        <v>27594.8456499598</v>
+        <v>5368.9425993188597</v>
       </c>
       <c r="N81">
-        <v>0.18844990480823501</v>
+        <v>0.114610164477476</v>
       </c>
       <c r="O81">
-        <v>0.22025303107595801</v>
+        <v>0.13322496184025701</v>
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>290.224686041128</v>
+        <v>320.28339472208802</v>
       </c>
       <c r="B82">
-        <v>543.26500000002</v>
+        <v>582.83299999997996</v>
       </c>
       <c r="C82" t="s">
-        <v>120</v>
+        <v>221</v>
       </c>
       <c r="D82" t="s">
         <v>16</v>
@@ -4573,42 +4871,45 @@
         <v>1</v>
       </c>
       <c r="F82" t="s">
-        <v>121</v>
+        <v>222</v>
       </c>
       <c r="G82" t="s">
-        <v>122</v>
+        <v>223</v>
       </c>
       <c r="H82">
-        <v>9426.9710648259606</v>
+        <v>11018.5119596149</v>
       </c>
       <c r="I82">
-        <v>9554.9959294663004</v>
+        <v>8783.9048097536706</v>
       </c>
       <c r="J82">
-        <v>10214.8727778554</v>
+        <v>9580.1209693017008</v>
       </c>
       <c r="K82">
-        <v>11211.567548522</v>
+        <v>10360.848245045599</v>
       </c>
       <c r="L82">
-        <v>10833.6366529892</v>
+        <v>10217.022704815699</v>
       </c>
       <c r="M82">
-        <v>6873.1804577641296</v>
+        <v>9625.46209343603</v>
       </c>
       <c r="N82">
-        <v>0.22307926322618299</v>
+        <v>9.6569130886183005E-2</v>
       </c>
       <c r="O82">
-        <v>0.30086252481325099</v>
+        <v>0.11407026597549</v>
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>290.23084247588702</v>
+        <v>330.278699527105</v>
       </c>
       <c r="B83">
-        <v>576.70900000001996</v>
+        <v>652.16500000001997</v>
+      </c>
+      <c r="C83" t="s">
+        <v>224</v>
       </c>
       <c r="D83" t="s">
         <v>16</v>
@@ -4616,319 +4917,38 @@
       <c r="E83">
         <v>1</v>
       </c>
+      <c r="F83" t="s">
+        <v>225</v>
+      </c>
+      <c r="G83" t="s">
+        <v>226</v>
+      </c>
       <c r="H83">
-        <v>13937.8863357596</v>
+        <v>4241.2762319553303</v>
       </c>
       <c r="I83">
-        <v>12707.315086012801</v>
+        <v>4417.0188705113997</v>
       </c>
       <c r="J83">
-        <v>14361.053044821099</v>
+        <v>3471.0410588271702</v>
       </c>
       <c r="K83">
-        <v>14042.419881853601</v>
+        <v>3344.5005191416799</v>
       </c>
       <c r="L83">
-        <v>14104.2799679619</v>
+        <v>2701.2820764949402</v>
       </c>
       <c r="M83">
-        <v>8729.5073851366305</v>
+        <v>4337.0893873626001</v>
       </c>
       <c r="N83">
-        <v>0.22812355775357701</v>
+        <v>0.24902929868047299</v>
       </c>
       <c r="O83">
-        <v>0.34377425663662903</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A84">
-        <v>290.23087370654298</v>
-      </c>
-      <c r="B84">
-        <v>570.24499999998</v>
-      </c>
-      <c r="D84" t="s">
-        <v>16</v>
-      </c>
-      <c r="E84">
-        <v>1</v>
-      </c>
-      <c r="H84">
-        <v>35596.203681297302</v>
-      </c>
-      <c r="I84">
-        <v>31172.3183765213</v>
-      </c>
-      <c r="J84">
-        <v>32140.007999834601</v>
-      </c>
-      <c r="K84">
-        <v>30709.2529369162</v>
-      </c>
-      <c r="L84">
-        <v>30491.820434568301</v>
-      </c>
-      <c r="M84">
-        <v>29216.604634688902</v>
-      </c>
-      <c r="N84">
-        <v>8.20906335097909E-2</v>
-      </c>
-      <c r="O84">
-        <v>0.102798869526555</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A85">
-        <v>298.32734604186902</v>
-      </c>
-      <c r="B85">
-        <v>769.70699999999999</v>
-      </c>
-      <c r="D85" t="s">
-        <v>16</v>
-      </c>
-      <c r="E85">
-        <v>1</v>
-      </c>
-      <c r="H85">
-        <v>5593.8910114270802</v>
-      </c>
-      <c r="I85">
-        <v>148533.48143400301</v>
-      </c>
-      <c r="J85">
-        <v>152554.41618745701</v>
-      </c>
-      <c r="K85">
-        <v>177406.352119191</v>
-      </c>
-      <c r="L85">
-        <v>157040.255537099</v>
-      </c>
-      <c r="M85">
-        <v>167506.79526682</v>
-      </c>
-      <c r="N85">
-        <v>0.37939028038021</v>
-      </c>
-      <c r="O85">
-        <v>0.56284744635533701</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A86">
-        <v>302.19004146800199</v>
-      </c>
-      <c r="B86">
-        <v>499.33800000000002</v>
-      </c>
-      <c r="C86" t="s">
-        <v>123</v>
-      </c>
-      <c r="D86" t="s">
-        <v>16</v>
-      </c>
-      <c r="E86">
-        <v>1</v>
-      </c>
-      <c r="F86" t="s">
-        <v>124</v>
-      </c>
-      <c r="G86" t="s">
-        <v>125</v>
-      </c>
-      <c r="H86">
-        <v>5440.2393798200101</v>
-      </c>
-      <c r="I86">
-        <v>6254.1224949443304</v>
-      </c>
-      <c r="J86">
-        <v>6647.61042845678</v>
-      </c>
-      <c r="K86">
-        <v>7049.7673544612398</v>
-      </c>
-      <c r="L86">
-        <v>6906.3590841757396</v>
-      </c>
-      <c r="M86">
-        <v>6633.1583452430395</v>
-      </c>
-      <c r="N86">
-        <v>9.8485421948281901E-2</v>
-      </c>
-      <c r="O86">
-        <v>0.120724641681246</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A87">
-        <v>302.19182450980202</v>
-      </c>
-      <c r="B87">
-        <v>447.64900000002001</v>
-      </c>
-      <c r="C87" t="s">
-        <v>123</v>
-      </c>
-      <c r="D87" t="s">
-        <v>16</v>
-      </c>
-      <c r="E87">
-        <v>1</v>
-      </c>
-      <c r="F87" t="s">
-        <v>124</v>
-      </c>
-      <c r="G87" t="s">
-        <v>125</v>
-      </c>
-      <c r="H87">
-        <v>8943.2021469476203</v>
-      </c>
-      <c r="I87">
-        <v>7567.6396820311302</v>
-      </c>
-      <c r="J87">
-        <v>7718.9901662555903</v>
-      </c>
-      <c r="K87">
-        <v>8351.0696800872793</v>
-      </c>
-      <c r="L87">
-        <v>8435.6470396368004</v>
-      </c>
-      <c r="M87">
-        <v>9926.8621014484597</v>
-      </c>
-      <c r="N87">
-        <v>0.115103481535916</v>
-      </c>
-      <c r="O87">
-        <v>0.13246246230039199</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A88">
-        <v>316.24779844692603</v>
-      </c>
-      <c r="B88">
-        <v>615.18600000000004</v>
-      </c>
-      <c r="D88" t="s">
-        <v>16</v>
-      </c>
-      <c r="E88">
-        <v>1</v>
-      </c>
-      <c r="H88">
-        <v>4655.9274279001902</v>
-      </c>
-      <c r="I88">
-        <v>4201.4625101845204</v>
-      </c>
-      <c r="J88">
-        <v>4918.69740065734</v>
-      </c>
-      <c r="K88">
-        <v>5505.7455840562898</v>
-      </c>
-      <c r="L88">
-        <v>5317.5174553765901</v>
-      </c>
-      <c r="M88">
-        <v>5368.9425993188597</v>
-      </c>
-      <c r="N88">
-        <v>0.114610164477476</v>
-      </c>
-      <c r="O88">
-        <v>0.13322496184025701</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A89">
-        <v>320.28339472208802</v>
-      </c>
-      <c r="B89">
-        <v>582.83299999997996</v>
-      </c>
-      <c r="D89" t="s">
-        <v>16</v>
-      </c>
-      <c r="E89">
-        <v>1</v>
-      </c>
-      <c r="H89">
-        <v>11018.5119596149</v>
-      </c>
-      <c r="I89">
-        <v>8783.9048097536706</v>
-      </c>
-      <c r="J89">
-        <v>9580.1209693017008</v>
-      </c>
-      <c r="K89">
-        <v>10360.848245045599</v>
-      </c>
-      <c r="L89">
-        <v>10217.022704815699</v>
-      </c>
-      <c r="M89">
-        <v>9625.46209343603</v>
-      </c>
-      <c r="N89">
-        <v>9.6569130886183005E-2</v>
-      </c>
-      <c r="O89">
-        <v>0.11407026597549</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A90">
-        <v>330.278699527105</v>
-      </c>
-      <c r="B90">
-        <v>652.16500000001997</v>
-      </c>
-      <c r="D90" t="s">
-        <v>16</v>
-      </c>
-      <c r="E90">
-        <v>1</v>
-      </c>
-      <c r="H90">
-        <v>4241.2762319553303</v>
-      </c>
-      <c r="I90">
-        <v>4417.0188705113997</v>
-      </c>
-      <c r="J90">
-        <v>3471.0410588271702</v>
-      </c>
-      <c r="K90">
-        <v>3344.5005191416799</v>
-      </c>
-      <c r="L90">
-        <v>2701.2820764949402</v>
-      </c>
-      <c r="M90">
-        <v>4337.0893873626001</v>
-      </c>
-      <c r="N90">
-        <v>0.24902929868047299</v>
-      </c>
-      <c r="O90">
         <v>0.305824934731599</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O90">
-    <sortCondition ref="A1:A90"/>
-  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
